--- a/Concepts/Concepts_test.xlsx
+++ b/Concepts/Concepts_test.xlsx
@@ -1,93 +1,140 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\GitHub\cvxlab_model\Concepts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBF7280-83D2-4A78-A5FB-68823B42C3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CD5EBE-DE98-4DF1-812C-AC5078A898C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multi-prod - Sim" sheetId="1" r:id="rId1"/>
     <sheet name="Multi-prod - Opt" sheetId="2" r:id="rId2"/>
+    <sheet name="Multi-prod - Planning" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="OpenSolver_ChosenSolver" localSheetId="2" hidden="1">CBC</definedName>
+    <definedName name="OpenSolver_DualsNewSheet" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="OpenSolver_LinearityCheck" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Multi-prod - Opt'!$K$51:$M$51,'Multi-prod - Opt'!$Y$43:$Y$45</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Multi-prod - Planning'!$O$24:$R$33,'Multi-prod - Planning'!$O$64:$R$73</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Multi-prod - Sim'!$W$27:$W$33,'Multi-prod - Sim'!$Y$31:$Y$33,'Multi-prod - Sim'!$Y$35:$Y$37</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Multi-prod - Opt'!$AA$36:$AA$41</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Multi-prod - Planning'!$AE$10:$AN$12</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Multi-prod - Sim'!$AA$27:$AA$32</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Multi-prod - Opt'!$AA$43:$AA$46</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Multi-prod - Planning'!$AE$24:$AH$33</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Multi-prod - Sim'!$AA$35:$AA$38</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Multi-prod - Opt'!$AA$43:$AA$45</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Multi-prod - Planning'!$AE$36:$AH$45</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Multi-prod - Sim'!$AA$35:$AA$37</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Multi-prod - Planning'!$J$10</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Multi-prod - Planning'!$J$10</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Multi-prod - Opt'!$W$49</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Multi-prod - Planning'!$T$21</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Multi-prod - Sim'!$AA$33</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Multi-prod - Planning'!$O$60</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">'Multi-prod - Planning'!$O$61</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -337,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="139">
   <si>
     <t>techs</t>
   </si>
@@ -553,18 +600,239 @@
   <si>
     <t>Q_agg*</t>
   </si>
+  <si>
+    <t>techs/sectors</t>
+  </si>
+  <si>
+    <t>Fuel Refinery</t>
+  </si>
+  <si>
+    <t>EE Supply</t>
+  </si>
+  <si>
+    <t>s.2-4</t>
+  </si>
+  <si>
+    <t>Solar PV</t>
+  </si>
+  <si>
+    <t>CCGT</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>y.1</t>
+  </si>
+  <si>
+    <t>y.2</t>
+  </si>
+  <si>
+    <t>y.3</t>
+  </si>
+  <si>
+    <t>y.4</t>
+  </si>
+  <si>
+    <t>y.5</t>
+  </si>
+  <si>
+    <t>F_O&amp;M</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
+  </si>
+  <si>
+    <t>€/MW</t>
+  </si>
+  <si>
+    <t>€/MW/y</t>
+  </si>
+  <si>
+    <t>€/MWh</t>
+  </si>
+  <si>
+    <t>Residual Cap</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Construction Time</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Tech Lifetime</t>
+  </si>
+  <si>
+    <t>toc</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>Rcap</t>
+  </si>
+  <si>
+    <t>Tot Max Cap</t>
+  </si>
+  <si>
+    <t>Average CF</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>totcap</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>I_eff</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>y.6</t>
+  </si>
+  <si>
+    <t>y.7</t>
+  </si>
+  <si>
+    <t>y.8</t>
+  </si>
+  <si>
+    <t>y.9</t>
+  </si>
+  <si>
+    <t>y.10</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Q_yp = [c_pt * (X_yt)']'</t>
+  </si>
+  <si>
+    <t>X_yt</t>
+  </si>
+  <si>
+    <t>Xagg'</t>
+  </si>
+  <si>
+    <t>OBJ</t>
+  </si>
+  <si>
+    <t>(Q_py)' - u_pt*(X_yt)' - Y_py = 0</t>
+  </si>
+  <si>
+    <t>New Capacity</t>
+  </si>
+  <si>
+    <t>Refinery</t>
+  </si>
+  <si>
+    <t>Real New Capacity</t>
+  </si>
+  <si>
+    <t>c_new</t>
+  </si>
+  <si>
+    <t>shift (toc = 2)</t>
+  </si>
+  <si>
+    <t>c_built = shift * c_new</t>
+  </si>
+  <si>
+    <t>Operative Capacity</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>Disposed Capacity</t>
+  </si>
+  <si>
+    <t>shift_toc (toc = 1)</t>
+  </si>
+  <si>
+    <t>shift_dis (toc = 1 + lt = 4)</t>
+  </si>
+  <si>
+    <t>shift_dis (toc = 2 + lt = 6)</t>
+  </si>
+  <si>
+    <t>c_dis = shift_dis * c_new</t>
+  </si>
+  <si>
+    <t>Tril</t>
+  </si>
+  <si>
+    <t>c_op = Rcap + Tril * c_built - c_dis</t>
+  </si>
+  <si>
+    <t>Activity/Capacity Ratio</t>
+  </si>
+  <si>
+    <t>prod/cap</t>
+  </si>
+  <si>
+    <t>c_op - totcap &lt;= 0</t>
+  </si>
+  <si>
+    <t>X_yt - (c_op*cf*prod_unit_cap) &lt;= 0</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>OPEX_V_disc</t>
+  </si>
+  <si>
+    <t>OPEX_F_disc</t>
+  </si>
+  <si>
+    <t>CAPEX_disc</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>disc</t>
+  </si>
+  <si>
+    <t>Max Fuel A %</t>
+  </si>
+  <si>
+    <t>Min Fuel A %</t>
+  </si>
+  <si>
+    <t>Max-min Fuel A Boundaries</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,8 +881,14 @@
       <name val="Calibri"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,6 +934,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,11 +1134,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -945,24 +1238,124 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -980,6 +1373,1042 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Mix</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Multi-prod - Planning'!$P$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Solar PV </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Multi-prod - Planning'!$P$24:$P$33</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.0_-;\-* #,##0.0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.458570999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.958571000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.958571000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.458571000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.458571000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101.45856999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111.45856999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>121.45856999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F3DE-4512-8370-FA388CD65929}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Multi-prod - Planning'!$Q$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> CCGT </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Multi-prod - Planning'!$Q$24:$Q$33</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.0_-;\-* #,##0.0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.5714286000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5714286000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5714286000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5714286000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5714286000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5714286000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5714286000000008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5714286000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5714286000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5714286000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F3DE-4512-8370-FA388CD65929}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Multi-prod - Planning'!$R$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Import </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Multi-prod - Planning'!$R$24:$R$33</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.0_-;\-* #,##0.0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16.445015999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.956527999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.488488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.488488</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F3DE-4512-8370-FA388CD65929}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1368273583"/>
+        <c:axId val="1368277423"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1368273583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1368277423"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1368277423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1368273583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2432,16 +3861,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>322799</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28469</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>77836</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>112238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>606590</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143437</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>361626</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>31333</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2464,8 +3893,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17130761" y="6989046"/>
-          <a:ext cx="7581406" cy="2856214"/>
+          <a:off x="18607624" y="6340123"/>
+          <a:ext cx="7588733" cy="2849864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3484,6 +4913,746 @@
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
             <a:t>: there is competition among technologies, once the total final demand is set to be conisistent. There are potentially infinite solutions available, once the final total demand values are such in a way that the model turns out feasible! ==&gt; for this reason, the objective function is needed to guide the solution towards teh "optimal" according to the objective!</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>426357</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>121621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538D206F-BD81-AFF8-9770-3ABAFB3AD4F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12672786" y="3650625"/>
+          <a:ext cx="5098143" cy="2458139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>226786</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>106135</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="79" name="Chart 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FDAE8D-F9FE-F204-2D94-E5BA909CC079}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="OpenSolver1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4062422F-7B68-633A-0617-53184017F98A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8255000" y="4235450"/>
+          <a:ext cx="2819400" cy="1841500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF00FF">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="OpenSolver2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2BA75D-39EF-A6BC-18FA-D4385C98A7C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8255000" y="11601450"/>
+          <a:ext cx="2819400" cy="1841500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF00FF">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="OpenSolver3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DAD6915-ABCD-936D-E900-FF67422F099C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11684000" y="3683000"/>
+          <a:ext cx="596900" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>218389</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="OpenSolver4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31324E07-21FE-C6A1-F73E-B7173DD49DC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11671300" y="3606800"/>
+          <a:ext cx="231089" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:alpha val="80000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>min </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="OpenSolverAE10:AN12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3465F5-7882-0B8C-1B68-7BBC7F42FD35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19062700" y="1657350"/>
+          <a:ext cx="4533900" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0=</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="OpenSolverAE24:AH33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29D73E0-5DB4-C53A-0DE4-4F9404F822E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19062700" y="4235450"/>
+          <a:ext cx="2444750" cy="1841500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="008000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0≥</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="OpenSolverAE36:AH45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA337DE7-873D-935A-8393-66232E80D440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19062700" y="6445250"/>
+          <a:ext cx="2444750" cy="1841500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="9900CC"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="9900CC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0≥</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371928</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>172358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="TextBox 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331112A0-8645-CE92-8D0C-2E2D57648378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="979714" y="3800929"/>
+          <a:ext cx="2667000" cy="1505857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800"/>
+            <a:t>AGGIUNGERE UNA NG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" baseline="0"/>
+            <a:t> SUPPLY per FUEL B</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3853,44 +6022,44 @@
   <dimension ref="A1:AU41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="W41" sqref="W41"/>
+      <selection pane="bottomRight" activeCell="Z54" sqref="Z54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.85546875" customWidth="1"/>
-    <col min="15" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.5703125" customWidth="1"/>
-    <col min="21" max="21" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.54296875" customWidth="1"/>
+    <col min="12" max="12" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.81640625" customWidth="1"/>
+    <col min="15" max="17" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.54296875" customWidth="1"/>
+    <col min="21" max="21" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.453125" customWidth="1"/>
     <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" customWidth="1"/>
-    <col min="29" max="35" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.1796875" customWidth="1"/>
+    <col min="29" max="35" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="6" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="5" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="6" bestFit="1" customWidth="1"/>
     <col min="43" max="47" width="6" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -3899,24 +6068,24 @@
       </c>
       <c r="D1" s="52"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="C2" s="74" t="s">
         <v>58</v>
       </c>
       <c r="D2" s="74"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="C3" s="75" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="75"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3966,7 +6135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -4025,7 +6194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -4035,7 +6204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="O8" t="s">
         <v>32</v>
       </c>
@@ -4067,7 +6236,7 @@
       <c r="AR8" s="44"/>
       <c r="AS8" s="44"/>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -4152,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -4235,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -4318,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -4401,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -4484,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -4567,7 +6736,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -4650,7 +6819,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="G16" s="5" t="s">
         <v>31</v>
       </c>
@@ -4690,7 +6859,7 @@
       <c r="AO16" s="23"/>
       <c r="AP16" s="23"/>
     </row>
-    <row r="17" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:47" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>24</v>
       </c>
@@ -4765,7 +6934,7 @@
       <c r="AO17" s="23"/>
       <c r="AP17" s="23"/>
     </row>
-    <row r="18" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:47" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -4839,7 +7008,7 @@
       <c r="AO18" s="23"/>
       <c r="AP18" s="23"/>
     </row>
-    <row r="19" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:47" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>26</v>
       </c>
@@ -4913,7 +7082,7 @@
       <c r="AO19" s="23"/>
       <c r="AP19" s="23"/>
     </row>
-    <row r="20" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:47" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>27</v>
       </c>
@@ -4987,7 +7156,7 @@
       <c r="AO20" s="23"/>
       <c r="AP20" s="23"/>
     </row>
-    <row r="21" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:47" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>28</v>
       </c>
@@ -5061,7 +7230,7 @@
       <c r="AO21" s="23"/>
       <c r="AP21" s="23"/>
     </row>
-    <row r="22" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:47" x14ac:dyDescent="0.35">
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -5099,7 +7268,7 @@
       <c r="AO22" s="23"/>
       <c r="AP22" s="23"/>
     </row>
-    <row r="23" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:47" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>38</v>
       </c>
@@ -5160,7 +7329,7 @@
       </c>
       <c r="AP23" s="23"/>
     </row>
-    <row r="24" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:47" x14ac:dyDescent="0.35">
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -5179,7 +7348,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -5227,7 +7396,7 @@
       <c r="AT25" s="4"/>
       <c r="AU25" s="4"/>
     </row>
-    <row r="26" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:47" x14ac:dyDescent="0.35">
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -5259,7 +7428,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:47" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:47" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>12</v>
       </c>
@@ -5312,7 +7481,7 @@
       </c>
       <c r="AB27" s="94"/>
     </row>
-    <row r="28" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>13</v>
       </c>
@@ -5364,7 +7533,7 @@
       </c>
       <c r="AB28" s="94"/>
     </row>
-    <row r="29" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>14</v>
       </c>
@@ -5416,7 +7585,7 @@
       </c>
       <c r="AB29" s="94"/>
     </row>
-    <row r="30" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>15</v>
       </c>
@@ -5470,7 +7639,7 @@
       </c>
       <c r="AB30" s="94"/>
     </row>
-    <row r="31" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>16</v>
       </c>
@@ -5522,7 +7691,7 @@
       </c>
       <c r="AB31" s="94"/>
     </row>
-    <row r="32" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>17</v>
       </c>
@@ -5574,7 +7743,7 @@
       </c>
       <c r="AB32" s="94"/>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>18</v>
       </c>
@@ -5626,7 +7795,7 @@
       </c>
       <c r="AB33" s="94"/>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.35">
       <c r="G34" t="s">
         <v>50</v>
       </c>
@@ -5655,7 +7824,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>24</v>
       </c>
@@ -5708,7 +7877,7 @@
       </c>
       <c r="AB35" s="94"/>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>25</v>
       </c>
@@ -5760,7 +7929,7 @@
       </c>
       <c r="AB36" s="94"/>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -5812,7 +7981,7 @@
       </c>
       <c r="AB37" s="94"/>
     </row>
-    <row r="38" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>27</v>
       </c>
@@ -5865,7 +8034,7 @@
       </c>
       <c r="AB38" s="94"/>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>28</v>
       </c>
@@ -5919,7 +8088,7 @@
       </c>
       <c r="AB39" s="94"/>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.35">
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
@@ -5945,7 +8114,7 @@
       <c r="Y40" s="23"/>
       <c r="Z40" s="23"/>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
         <v>38</v>
       </c>
@@ -5998,47 +8167,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1E315C-344D-47D8-827F-77492C2364D5}">
   <dimension ref="A1:AU51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P45" sqref="P45"/>
+      <selection pane="bottomRight" activeCell="Z41" sqref="Z41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" customWidth="1"/>
+    <col min="9" max="9" width="7.54296875" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.54296875" customWidth="1"/>
+    <col min="12" max="12" width="7.54296875" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.85546875" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.81640625" customWidth="1"/>
+    <col min="15" max="15" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.5703125" customWidth="1"/>
-    <col min="21" max="21" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.42578125" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" customWidth="1"/>
-    <col min="24" max="24" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" customWidth="1"/>
-    <col min="29" max="35" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.54296875" customWidth="1"/>
+    <col min="21" max="21" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.453125" customWidth="1"/>
+    <col min="23" max="23" width="11.26953125" customWidth="1"/>
+    <col min="24" max="24" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.1796875" customWidth="1"/>
+    <col min="29" max="35" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="6" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="5" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="6" bestFit="1" customWidth="1"/>
     <col min="43" max="47" width="6" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -6047,24 +8216,24 @@
       </c>
       <c r="D1" s="52"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="C2" s="74" t="s">
         <v>58</v>
       </c>
       <c r="D2" s="74"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="C3" s="75" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="75"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -6114,7 +8283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -6173,7 +8342,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -6183,7 +8352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="O8" t="s">
         <v>32</v>
       </c>
@@ -6215,7 +8384,7 @@
       <c r="AR8" s="44"/>
       <c r="AS8" s="44"/>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -6300,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -6383,7 +8552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -6466,7 +8635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -6549,7 +8718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -6632,7 +8801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -6715,7 +8884,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -6798,7 +8967,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="G16" s="5" t="s">
         <v>31</v>
       </c>
@@ -6838,7 +9007,7 @@
       <c r="AO16" s="23"/>
       <c r="AP16" s="23"/>
     </row>
-    <row r="17" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:47" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>24</v>
       </c>
@@ -6913,7 +9082,7 @@
       <c r="AO17" s="23"/>
       <c r="AP17" s="23"/>
     </row>
-    <row r="18" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:47" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -6987,7 +9156,7 @@
       <c r="AO18" s="23"/>
       <c r="AP18" s="23"/>
     </row>
-    <row r="19" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:47" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>26</v>
       </c>
@@ -7061,7 +9230,7 @@
       <c r="AO19" s="23"/>
       <c r="AP19" s="23"/>
     </row>
-    <row r="20" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:47" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>27</v>
       </c>
@@ -7135,7 +9304,7 @@
       <c r="AO20" s="23"/>
       <c r="AP20" s="23"/>
     </row>
-    <row r="21" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:47" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>28</v>
       </c>
@@ -7209,7 +9378,7 @@
       <c r="AO21" s="23"/>
       <c r="AP21" s="23"/>
     </row>
-    <row r="22" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:47" x14ac:dyDescent="0.35">
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -7247,7 +9416,7 @@
       <c r="AO22" s="23"/>
       <c r="AP22" s="23"/>
     </row>
-    <row r="23" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:47" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>38</v>
       </c>
@@ -7308,7 +9477,7 @@
       </c>
       <c r="AP23" s="23"/>
     </row>
-    <row r="24" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:47" x14ac:dyDescent="0.35">
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -7327,7 +9496,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -7375,7 +9544,7 @@
       <c r="AT25" s="4"/>
       <c r="AU25" s="4"/>
     </row>
-    <row r="26" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:47" x14ac:dyDescent="0.35">
       <c r="N26" s="5"/>
       <c r="AC26" s="5" t="s">
         <v>62</v>
@@ -7394,7 +9563,7 @@
       <c r="AN26" s="23"/>
       <c r="AO26" s="23"/>
     </row>
-    <row r="27" spans="2:47" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:47" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>12</v>
       </c>
@@ -7444,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>13</v>
       </c>
@@ -7493,7 +9662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>14</v>
       </c>
@@ -7542,7 +9711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B30" s="96" t="s">
         <v>61</v>
       </c>
@@ -7591,7 +9760,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="31" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>17</v>
       </c>
@@ -7640,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>18</v>
       </c>
@@ -7689,7 +9858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:41" x14ac:dyDescent="0.35">
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -7718,7 +9887,7 @@
       <c r="AN33" s="28"/>
       <c r="AO33" s="28"/>
     </row>
-    <row r="34" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:41" x14ac:dyDescent="0.35">
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -7742,7 +9911,7 @@
       <c r="AA34" s="94"/>
       <c r="AB34" s="94"/>
     </row>
-    <row r="35" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:41" x14ac:dyDescent="0.35">
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
@@ -7775,7 +9944,7 @@
       </c>
       <c r="AB35" s="94"/>
     </row>
-    <row r="36" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>12</v>
       </c>
@@ -7828,7 +9997,7 @@
       </c>
       <c r="AB36" s="94"/>
     </row>
-    <row r="37" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>13</v>
       </c>
@@ -7880,7 +10049,7 @@
       </c>
       <c r="AB37" s="94"/>
     </row>
-    <row r="38" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>14</v>
       </c>
@@ -7931,7 +10100,7 @@
       </c>
       <c r="AB38" s="94"/>
     </row>
-    <row r="39" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B39" s="96" t="s">
         <v>61</v>
       </c>
@@ -7982,7 +10151,7 @@
       </c>
       <c r="AB39" s="94"/>
     </row>
-    <row r="40" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>17</v>
       </c>
@@ -8034,7 +10203,7 @@
       </c>
       <c r="AB40" s="94"/>
     </row>
-    <row r="41" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>18</v>
       </c>
@@ -8086,7 +10255,7 @@
       </c>
       <c r="AB41" s="94"/>
     </row>
-    <row r="42" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:41" x14ac:dyDescent="0.35">
       <c r="G42" t="s">
         <v>50</v>
       </c>
@@ -8115,7 +10284,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:41" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>24</v>
       </c>
@@ -8168,7 +10337,7 @@
       </c>
       <c r="AB43" s="94"/>
     </row>
-    <row r="44" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:41" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -8220,7 +10389,7 @@
       </c>
       <c r="AB44" s="94"/>
     </row>
-    <row r="45" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:41" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>26</v>
       </c>
@@ -8272,7 +10441,7 @@
       </c>
       <c r="AB45" s="94"/>
     </row>
-    <row r="46" spans="2:41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
         <v>27</v>
       </c>
@@ -8325,7 +10494,7 @@
       </c>
       <c r="AB46" s="94"/>
     </row>
-    <row r="47" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:41" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>28</v>
       </c>
@@ -8379,7 +10548,7 @@
       </c>
       <c r="AB47" s="94"/>
     </row>
-    <row r="48" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:41" x14ac:dyDescent="0.35">
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
@@ -8405,7 +10574,7 @@
       <c r="Y48" s="23"/>
       <c r="Z48" s="23"/>
     </row>
-    <row r="49" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D49" t="s">
         <v>38</v>
       </c>
@@ -8447,12 +10616,12 @@
       <c r="Y49" s="23"/>
       <c r="Z49" s="23"/>
     </row>
-    <row r="50" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:26" x14ac:dyDescent="0.35">
       <c r="G50" s="98" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:26" x14ac:dyDescent="0.35">
       <c r="G51" s="108" cm="1">
         <f t="array" ref="G51:J51">TRANSPOSE(MMULT(AQ9:AS12,Y43:Y45))</f>
         <v>157.50000000003502</v>
@@ -8481,4 +10650,4660 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C670724-045E-4D8F-BCCC-F25A31CADD2C}">
+  <dimension ref="A1:AN119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="8" topLeftCell="R9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="AD15" sqref="AD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="127"/>
+    <col min="3" max="3" width="16.26953125" style="127" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="127" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" style="127"/>
+    <col min="7" max="7" width="10" style="127" customWidth="1"/>
+    <col min="8" max="8" width="5.7265625" style="127" customWidth="1"/>
+    <col min="9" max="9" width="6.6328125" style="127" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.7265625" style="127" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="127"/>
+    <col min="15" max="15" width="9.1796875" style="127" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.1796875" style="127" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" style="127" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7265625" style="127"/>
+    <col min="20" max="20" width="8.54296875" style="127" customWidth="1"/>
+    <col min="21" max="22" width="12" style="127" customWidth="1"/>
+    <col min="23" max="23" width="8.6328125" style="127" customWidth="1"/>
+    <col min="24" max="25" width="8" style="127" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.54296875" style="127" customWidth="1"/>
+    <col min="27" max="28" width="8" style="127" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.1796875" style="127" customWidth="1"/>
+    <col min="30" max="30" width="8.7265625" style="127"/>
+    <col min="31" max="31" width="9.08984375" style="127" customWidth="1"/>
+    <col min="32" max="32" width="9.6328125" style="127" customWidth="1"/>
+    <col min="33" max="33" width="7.90625" style="127" customWidth="1"/>
+    <col min="34" max="34" width="8.36328125" style="127" customWidth="1"/>
+    <col min="35" max="35" width="4.90625" style="127" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="4.7265625" style="127" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="4.90625" style="127" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.7265625" style="127" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.7265625" style="127"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A1" s="127" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="128" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="128"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="C2" s="129" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="129"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="C3" s="130" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="130"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A4" s="131" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="U4" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="V4" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="W4" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="X4" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y4" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z4" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA4" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB4" s="127" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC4" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE4" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG4" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI4" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ4" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK4" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL4" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM4" s="127" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN4" s="127" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="B5" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="G5" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="127" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="B6" s="131"/>
+      <c r="C6" s="131" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="J6" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="127" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="127" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="127" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="127" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" s="127" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="127" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="127" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="127" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="127" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="J9" s="127" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="127" t="s">
+        <v>96</v>
+      </c>
+      <c r="T9" s="127" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE9" s="127" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="B10" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="127" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="127" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="165">
+        <v>0.7</v>
+      </c>
+      <c r="K10" s="133">
+        <v>0</v>
+      </c>
+      <c r="L10" s="133">
+        <v>0</v>
+      </c>
+      <c r="M10" s="134">
+        <v>0</v>
+      </c>
+      <c r="O10" s="132">
+        <v>0</v>
+      </c>
+      <c r="P10" s="133">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="133">
+        <v>0</v>
+      </c>
+      <c r="R10" s="134">
+        <v>0</v>
+      </c>
+      <c r="T10" s="135">
+        <v>40</v>
+      </c>
+      <c r="U10" s="135">
+        <f>T10</f>
+        <v>40</v>
+      </c>
+      <c r="V10" s="135">
+        <f t="shared" ref="V10:AC10" si="0">U10</f>
+        <v>40</v>
+      </c>
+      <c r="W10" s="135">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="X10" s="135">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="Y10" s="135">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="Z10" s="135">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AA10" s="135">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB10" s="135">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AC10" s="135">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AE10" s="189" cm="1">
+        <f t="array" ref="AE10:AN12">TRANSPOSE(G24:I33) - MMULT(O10:R12,TRANSPOSE(O24:R33)) - T10:AC12</f>
+        <v>-1.0000000116860974E-7</v>
+      </c>
+      <c r="AF10" s="190">
+        <v>-1.0000000116860974E-7</v>
+      </c>
+      <c r="AG10" s="190">
+        <v>-1.0000000116860974E-7</v>
+      </c>
+      <c r="AH10" s="190">
+        <v>-1.0000000116860974E-7</v>
+      </c>
+      <c r="AI10" s="190">
+        <v>-1.0000000116860974E-7</v>
+      </c>
+      <c r="AJ10" s="190">
+        <v>-1.0000000116860974E-7</v>
+      </c>
+      <c r="AK10" s="190">
+        <v>-1.0000000116860974E-7</v>
+      </c>
+      <c r="AL10" s="190">
+        <v>-1.0000000116860974E-7</v>
+      </c>
+      <c r="AM10" s="190">
+        <v>-1.0000000116860974E-7</v>
+      </c>
+      <c r="AN10" s="191">
+        <v>-1.0000000116860974E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="B11" s="127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="127" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="124">
+        <f>1-J10</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K11" s="137">
+        <v>0</v>
+      </c>
+      <c r="L11" s="137">
+        <v>0</v>
+      </c>
+      <c r="M11" s="138">
+        <v>0</v>
+      </c>
+      <c r="O11" s="136">
+        <v>0</v>
+      </c>
+      <c r="P11" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="137">
+        <v>2</v>
+      </c>
+      <c r="R11" s="138">
+        <v>0</v>
+      </c>
+      <c r="T11" s="139">
+        <v>0</v>
+      </c>
+      <c r="U11" s="139">
+        <v>0</v>
+      </c>
+      <c r="V11" s="139">
+        <v>0</v>
+      </c>
+      <c r="W11" s="139">
+        <v>0</v>
+      </c>
+      <c r="X11" s="139">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="139">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="139">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="139">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="139">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="139">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="192">
+        <v>-9.9999997615896064E-8</v>
+      </c>
+      <c r="AF11" s="193">
+        <v>-9.9999997615896064E-8</v>
+      </c>
+      <c r="AG11" s="193">
+        <v>-9.9999997615896064E-8</v>
+      </c>
+      <c r="AH11" s="193">
+        <v>-9.9999997615896064E-8</v>
+      </c>
+      <c r="AI11" s="193">
+        <v>-9.9999997615896064E-8</v>
+      </c>
+      <c r="AJ11" s="193">
+        <v>-9.9999997615896064E-8</v>
+      </c>
+      <c r="AK11" s="193">
+        <v>-9.9999997615896064E-8</v>
+      </c>
+      <c r="AL11" s="193">
+        <v>-9.9999997615896064E-8</v>
+      </c>
+      <c r="AM11" s="193">
+        <v>-9.9999997615896064E-8</v>
+      </c>
+      <c r="AN11" s="194">
+        <v>-9.9999997615896064E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="B12" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="127" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="140">
+        <v>0</v>
+      </c>
+      <c r="K12" s="141">
+        <v>1</v>
+      </c>
+      <c r="L12" s="141">
+        <v>1</v>
+      </c>
+      <c r="M12" s="142">
+        <v>1</v>
+      </c>
+      <c r="O12" s="140">
+        <v>0</v>
+      </c>
+      <c r="P12" s="141">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="141">
+        <v>0</v>
+      </c>
+      <c r="R12" s="112">
+        <v>1E-3</v>
+      </c>
+      <c r="T12" s="143">
+        <v>70</v>
+      </c>
+      <c r="U12" s="143">
+        <f>T12+10</f>
+        <v>80</v>
+      </c>
+      <c r="V12" s="143">
+        <f t="shared" ref="V12:AC12" si="1">U12+10</f>
+        <v>90</v>
+      </c>
+      <c r="W12" s="143">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="X12" s="143">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="Y12" s="143">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="Z12" s="143">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="AA12" s="143">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="AB12" s="143">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="AC12" s="143">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="AE12" s="195">
+        <v>-4.1600000599828491E-7</v>
+      </c>
+      <c r="AF12" s="196">
+        <v>7.2000005957306712E-8</v>
+      </c>
+      <c r="AG12" s="196">
+        <v>-4.0000000467443897E-7</v>
+      </c>
+      <c r="AH12" s="196">
+        <v>-8.8799998820832116E-7</v>
+      </c>
+      <c r="AI12" s="196">
+        <v>-8.8799998820832116E-7</v>
+      </c>
+      <c r="AJ12" s="196">
+        <v>-3.9999999046358425E-7</v>
+      </c>
+      <c r="AK12" s="196">
+        <v>-4.0000000467443897E-7</v>
+      </c>
+      <c r="AL12" s="196">
+        <v>-1.4000000021496817E-6</v>
+      </c>
+      <c r="AM12" s="196">
+        <v>-1.4000000021496817E-6</v>
+      </c>
+      <c r="AN12" s="197">
+        <v>-1.4000000021496817E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="G13" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" s="127" t="s">
+        <v>98</v>
+      </c>
+      <c r="T13" s="127" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="C14" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="127" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="127" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="132">
+        <v>1</v>
+      </c>
+      <c r="H14" s="133">
+        <v>1</v>
+      </c>
+      <c r="I14" s="134">
+        <v>0</v>
+      </c>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="O14" s="174">
+        <v>1</v>
+      </c>
+      <c r="P14" s="175">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="175">
+        <v>0</v>
+      </c>
+      <c r="R14" s="176">
+        <v>0</v>
+      </c>
+      <c r="T14" s="114" cm="1">
+        <f t="array" ref="T14:AC15">MMULT(O14:R15,TRANSPOSE(O24:R33))</f>
+        <v>57.142856999999999</v>
+      </c>
+      <c r="U14" s="115">
+        <v>57.142856999999999</v>
+      </c>
+      <c r="V14" s="115">
+        <v>57.142856999999999</v>
+      </c>
+      <c r="W14" s="115">
+        <v>57.142856999999999</v>
+      </c>
+      <c r="X14" s="115">
+        <v>57.142856999999999</v>
+      </c>
+      <c r="Y14" s="115">
+        <v>57.142856999999999</v>
+      </c>
+      <c r="Z14" s="115">
+        <v>57.142856999999999</v>
+      </c>
+      <c r="AA14" s="115">
+        <v>57.142856999999999</v>
+      </c>
+      <c r="AB14" s="115">
+        <v>57.142856999999999</v>
+      </c>
+      <c r="AC14" s="116">
+        <v>57.142856999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="C15" s="127" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="127" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="127" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="140">
+        <v>0</v>
+      </c>
+      <c r="H15" s="141">
+        <v>0</v>
+      </c>
+      <c r="I15" s="142">
+        <v>1</v>
+      </c>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="O15" s="177">
+        <v>0</v>
+      </c>
+      <c r="P15" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="178">
+        <v>1</v>
+      </c>
+      <c r="R15" s="179">
+        <v>1</v>
+      </c>
+      <c r="T15" s="120">
+        <v>70.0164446</v>
+      </c>
+      <c r="U15" s="121">
+        <v>80.02795660000001</v>
+      </c>
+      <c r="V15" s="121">
+        <v>90.029999599999996</v>
+      </c>
+      <c r="W15" s="121">
+        <v>100.01848760000001</v>
+      </c>
+      <c r="X15" s="121">
+        <v>110.01848760000001</v>
+      </c>
+      <c r="Y15" s="121">
+        <v>120.02999960000001</v>
+      </c>
+      <c r="Z15" s="121">
+        <v>130.0299996</v>
+      </c>
+      <c r="AA15" s="121">
+        <v>140.0299986</v>
+      </c>
+      <c r="AB15" s="121">
+        <v>150.0299986</v>
+      </c>
+      <c r="AC15" s="122">
+        <v>160.0299986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="U16" s="123"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="D17" s="127" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="127" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" s="180">
+        <v>30</v>
+      </c>
+      <c r="P17" s="181">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="181">
+        <v>4</v>
+      </c>
+      <c r="R17" s="182">
+        <v>60</v>
+      </c>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="D18" s="127" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="127" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" s="183">
+        <v>0</v>
+      </c>
+      <c r="P18" s="184">
+        <f>P19*0.02</f>
+        <v>20000</v>
+      </c>
+      <c r="Q18" s="184">
+        <f>Q19*0.02</f>
+        <v>40000</v>
+      </c>
+      <c r="R18" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="D19" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" s="186">
+        <v>500</v>
+      </c>
+      <c r="P19" s="187">
+        <f>1000*10^3</f>
+        <v>1000000</v>
+      </c>
+      <c r="Q19" s="187">
+        <f>2000*10^3</f>
+        <v>2000000</v>
+      </c>
+      <c r="R19" s="188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="O20" s="160"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="160"/>
+      <c r="R20" s="160"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="O21" s="160"/>
+      <c r="P21" s="160"/>
+      <c r="Q21" s="160"/>
+      <c r="R21" s="160"/>
+      <c r="S21" s="127" t="s">
+        <v>109</v>
+      </c>
+      <c r="T21" s="209">
+        <f>SUM(O110:R119,T110:W119,Y110:AB119)</f>
+        <v>321410337.6828568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="O22" s="160"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="160"/>
+      <c r="R22" s="160"/>
+      <c r="AE22" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF22" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG22" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH22" s="127" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="G23" s="127" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" s="127" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE23" s="207" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A24" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="165" cm="1">
+        <f t="array" ref="G24:I33">TRANSPOSE(MMULT(J10:M12,TRANSPOSE(O24:R33)))</f>
+        <v>39.999999899999999</v>
+      </c>
+      <c r="H24" s="166">
+        <v>17.142857100000004</v>
+      </c>
+      <c r="I24" s="167">
+        <v>70.0164446</v>
+      </c>
+      <c r="O24" s="198">
+        <v>57.142856999999999</v>
+      </c>
+      <c r="P24" s="199">
+        <v>45</v>
+      </c>
+      <c r="Q24" s="199">
+        <v>8.5714286000000008</v>
+      </c>
+      <c r="R24" s="200">
+        <v>16.445015999999999</v>
+      </c>
+      <c r="AD24" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE24" s="189" cm="1">
+        <f t="array" ref="AE24:AH24">O24:R24 - (O97:R97*$O$56:$R$56*$O$58:$R$58)</f>
+        <v>-2.8571430000000007</v>
+      </c>
+      <c r="AF24" s="190">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="190">
+        <v>-19.428571399999999</v>
+      </c>
+      <c r="AH24" s="191">
+        <v>-13.554984000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A25" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="168">
+        <v>39.999999899999999</v>
+      </c>
+      <c r="H25" s="169">
+        <v>17.142857100000004</v>
+      </c>
+      <c r="I25" s="170">
+        <v>80.02795660000001</v>
+      </c>
+      <c r="O25" s="201">
+        <v>57.142856999999999</v>
+      </c>
+      <c r="P25" s="202">
+        <v>43.5</v>
+      </c>
+      <c r="Q25" s="202">
+        <v>8.5714286000000008</v>
+      </c>
+      <c r="R25" s="203">
+        <v>27.956527999999999</v>
+      </c>
+      <c r="AD25" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE25" s="192" cm="1">
+        <f t="array" ref="AE25:AH25">O25:R25 - (O98:R98*$O$56:$R$56*$O$58:$R$58)</f>
+        <v>-2.8571430000000007</v>
+      </c>
+      <c r="AF25" s="193">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="193">
+        <v>-17.428571399999999</v>
+      </c>
+      <c r="AH25" s="194">
+        <v>-2.0434720000000013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A26" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="168">
+        <v>39.999999899999999</v>
+      </c>
+      <c r="H26" s="169">
+        <v>17.142857100000004</v>
+      </c>
+      <c r="I26" s="170">
+        <v>90.029999599999996</v>
+      </c>
+      <c r="O26" s="201">
+        <v>57.142856999999999</v>
+      </c>
+      <c r="P26" s="202">
+        <v>51.458570999999999</v>
+      </c>
+      <c r="Q26" s="202">
+        <v>8.5714286000000008</v>
+      </c>
+      <c r="R26" s="203">
+        <v>30</v>
+      </c>
+      <c r="AD26" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE26" s="192" cm="1">
+        <f t="array" ref="AE26:AH26">O26:R26 - (O99:R99*$O$56:$R$56*$O$58:$R$58)</f>
+        <v>-2.8571430000000007</v>
+      </c>
+      <c r="AF26" s="193">
+        <v>-2.9999999640040187E-7</v>
+      </c>
+      <c r="AG26" s="193">
+        <v>-15.428571399999999</v>
+      </c>
+      <c r="AH26" s="194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A27" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="168">
+        <v>39.999999899999999</v>
+      </c>
+      <c r="H27" s="169">
+        <v>17.142857100000004</v>
+      </c>
+      <c r="I27" s="170">
+        <v>100.01848760000001</v>
+      </c>
+      <c r="O27" s="201">
+        <v>57.142856999999999</v>
+      </c>
+      <c r="P27" s="202">
+        <v>72.958571000000006</v>
+      </c>
+      <c r="Q27" s="202">
+        <v>8.5714286000000008</v>
+      </c>
+      <c r="R27" s="203">
+        <v>18.488488</v>
+      </c>
+      <c r="AD27" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE27" s="192" cm="1">
+        <f t="array" ref="AE27:AH27">O27:R27 - (O100:R100*$O$56:$R$56*$O$58:$R$58)</f>
+        <v>-2.8571430000000007</v>
+      </c>
+      <c r="AF27" s="193">
+        <v>-3.9999999046358425E-7</v>
+      </c>
+      <c r="AG27" s="193">
+        <v>-13.428571399999999</v>
+      </c>
+      <c r="AH27" s="194">
+        <v>-11.511512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A28" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="168">
+        <v>39.999999899999999</v>
+      </c>
+      <c r="H28" s="169">
+        <v>17.142857100000004</v>
+      </c>
+      <c r="I28" s="170">
+        <v>110.01848760000001</v>
+      </c>
+      <c r="O28" s="201">
+        <v>57.142856999999999</v>
+      </c>
+      <c r="P28" s="202">
+        <v>82.958571000000006</v>
+      </c>
+      <c r="Q28" s="202">
+        <v>8.5714286000000008</v>
+      </c>
+      <c r="R28" s="203">
+        <v>18.488488</v>
+      </c>
+      <c r="AD28" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE28" s="192" cm="1">
+        <f t="array" ref="AE28:AH28">O28:R28 - (O101:R101*$O$56:$R$56*$O$58:$R$58)</f>
+        <v>-2.8571430000000007</v>
+      </c>
+      <c r="AF28" s="193">
+        <v>-2.9999999640040187E-7</v>
+      </c>
+      <c r="AG28" s="193">
+        <v>-11.428571399999999</v>
+      </c>
+      <c r="AH28" s="194">
+        <v>-11.511512</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A29" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="168">
+        <v>39.999999899999999</v>
+      </c>
+      <c r="H29" s="169">
+        <v>17.142857100000004</v>
+      </c>
+      <c r="I29" s="170">
+        <v>120.02999960000001</v>
+      </c>
+      <c r="O29" s="201">
+        <v>57.142856999999999</v>
+      </c>
+      <c r="P29" s="202">
+        <v>81.458571000000006</v>
+      </c>
+      <c r="Q29" s="202">
+        <v>8.5714286000000008</v>
+      </c>
+      <c r="R29" s="203">
+        <v>30</v>
+      </c>
+      <c r="AD29" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE29" s="192" cm="1">
+        <f t="array" ref="AE29:AH29">O29:R29 - (O102:R102*$O$56:$R$56*$O$58:$R$58)</f>
+        <v>-2.8571430000000007</v>
+      </c>
+      <c r="AF29" s="193">
+        <v>-2.9999999640040187E-7</v>
+      </c>
+      <c r="AG29" s="193">
+        <v>-9.4285713999999992</v>
+      </c>
+      <c r="AH29" s="194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A30" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="168">
+        <v>39.999999899999999</v>
+      </c>
+      <c r="H30" s="169">
+        <v>17.142857100000004</v>
+      </c>
+      <c r="I30" s="170">
+        <v>130.0299996</v>
+      </c>
+      <c r="O30" s="201">
+        <v>57.142856999999999</v>
+      </c>
+      <c r="P30" s="202">
+        <v>91.458571000000006</v>
+      </c>
+      <c r="Q30" s="202">
+        <v>8.5714286000000008</v>
+      </c>
+      <c r="R30" s="203">
+        <v>30</v>
+      </c>
+      <c r="AD30" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE30" s="192" cm="1">
+        <f t="array" ref="AE30:AH30">O30:R30 - (O103:R103*$O$56:$R$56*$O$58:$R$58)</f>
+        <v>-2.8571430000000007</v>
+      </c>
+      <c r="AF30" s="193">
+        <v>-4.9999998452676664E-7</v>
+      </c>
+      <c r="AG30" s="193">
+        <v>-7.4285713999999992</v>
+      </c>
+      <c r="AH30" s="194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A31" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="168">
+        <v>39.999999899999999</v>
+      </c>
+      <c r="H31" s="169">
+        <v>17.142857100000004</v>
+      </c>
+      <c r="I31" s="170">
+        <v>140.0299986</v>
+      </c>
+      <c r="O31" s="201">
+        <v>57.142856999999999</v>
+      </c>
+      <c r="P31" s="202">
+        <v>101.45856999999999</v>
+      </c>
+      <c r="Q31" s="202">
+        <v>8.5714286000000008</v>
+      </c>
+      <c r="R31" s="203">
+        <v>30</v>
+      </c>
+      <c r="AD31" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE31" s="192" cm="1">
+        <f t="array" ref="AE31:AH31">O31:R31 - (O104:R104*$O$56:$R$56*$O$58:$R$58)</f>
+        <v>-2.8571430000000007</v>
+      </c>
+      <c r="AF31" s="193">
+        <v>-1.399999987938827E-6</v>
+      </c>
+      <c r="AG31" s="193">
+        <v>-5.4285713999999992</v>
+      </c>
+      <c r="AH31" s="194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A32" s="127" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="168">
+        <v>39.999999899999999</v>
+      </c>
+      <c r="H32" s="169">
+        <v>17.142857100000004</v>
+      </c>
+      <c r="I32" s="170">
+        <v>150.0299986</v>
+      </c>
+      <c r="O32" s="201">
+        <v>57.142856999999999</v>
+      </c>
+      <c r="P32" s="202">
+        <v>111.45856999999999</v>
+      </c>
+      <c r="Q32" s="202">
+        <v>8.5714286000000008</v>
+      </c>
+      <c r="R32" s="203">
+        <v>30</v>
+      </c>
+      <c r="AD32" s="127" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE32" s="192" cm="1">
+        <f t="array" ref="AE32:AH32">O32:R32 - (O105:R105*$O$56:$R$56*$O$58:$R$58)</f>
+        <v>-2.8571430000000007</v>
+      </c>
+      <c r="AF32" s="193">
+        <v>-1.6000000044869012E-6</v>
+      </c>
+      <c r="AG32" s="193">
+        <v>-3.4285713999999992</v>
+      </c>
+      <c r="AH32" s="194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A33" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="171">
+        <v>39.999999899999999</v>
+      </c>
+      <c r="H33" s="172">
+        <v>17.142857100000004</v>
+      </c>
+      <c r="I33" s="173">
+        <v>160.0299986</v>
+      </c>
+      <c r="O33" s="204">
+        <v>57.142856999999999</v>
+      </c>
+      <c r="P33" s="205">
+        <v>121.45856999999999</v>
+      </c>
+      <c r="Q33" s="205">
+        <v>8.5714286000000008</v>
+      </c>
+      <c r="R33" s="206">
+        <v>30</v>
+      </c>
+      <c r="AD33" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE33" s="195" cm="1">
+        <f t="array" ref="AE33:AH33">O33:R33 - (O106:R106*$O$56:$R$56*$O$58:$R$58)</f>
+        <v>-2.8571430000000007</v>
+      </c>
+      <c r="AF33" s="196">
+        <v>-1.4999999962128641E-6</v>
+      </c>
+      <c r="AG33" s="196">
+        <v>-1.4285713999999992</v>
+      </c>
+      <c r="AH33" s="197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="G34" s="169"/>
+      <c r="H34" s="169"/>
+      <c r="I34" s="169"/>
+      <c r="O34" s="160"/>
+      <c r="P34" s="160"/>
+      <c r="Q34" s="160"/>
+      <c r="R34" s="160"/>
+      <c r="AE34" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF34" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG34" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH34" s="127" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="O35" s="127" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE35" s="207" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="D36" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="N36" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="O36" s="132">
+        <v>60</v>
+      </c>
+      <c r="P36" s="133">
+        <v>150</v>
+      </c>
+      <c r="Q36" s="133">
+        <v>70</v>
+      </c>
+      <c r="R36" s="134">
+        <v>30</v>
+      </c>
+      <c r="AD36" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE36" s="189" cm="1">
+        <f t="array" ref="AE36:AH36" xml:space="preserve"> O97:R97 - $O$54:$R$54</f>
+        <v>-99940</v>
+      </c>
+      <c r="AF36" s="190">
+        <v>-350</v>
+      </c>
+      <c r="AG36" s="190">
+        <v>-230</v>
+      </c>
+      <c r="AH36" s="191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="N37" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="O37" s="136">
+        <f>O36</f>
+        <v>60</v>
+      </c>
+      <c r="P37" s="137">
+        <f>P36-5</f>
+        <v>145</v>
+      </c>
+      <c r="Q37" s="137">
+        <f>Q36-5</f>
+        <v>65</v>
+      </c>
+      <c r="R37" s="138">
+        <f>R36</f>
+        <v>30</v>
+      </c>
+      <c r="AD37" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE37" s="192" cm="1">
+        <f t="array" ref="AE37:AH37" xml:space="preserve"> O98:R98 - $O$54:$R$54</f>
+        <v>-99940</v>
+      </c>
+      <c r="AF37" s="193">
+        <v>-355</v>
+      </c>
+      <c r="AG37" s="193">
+        <v>-235</v>
+      </c>
+      <c r="AH37" s="194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="N38" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="O38" s="136">
+        <f t="shared" ref="O38:O45" si="2">O37</f>
+        <v>60</v>
+      </c>
+      <c r="P38" s="137">
+        <f t="shared" ref="P38:P40" si="3">P37-5</f>
+        <v>140</v>
+      </c>
+      <c r="Q38" s="137">
+        <f t="shared" ref="Q38:Q40" si="4">Q37-5</f>
+        <v>60</v>
+      </c>
+      <c r="R38" s="138">
+        <f t="shared" ref="R38:R45" si="5">R37</f>
+        <v>30</v>
+      </c>
+      <c r="AD38" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE38" s="192" cm="1">
+        <f t="array" ref="AE38:AH38" xml:space="preserve"> O99:R99 - $O$54:$R$54</f>
+        <v>-99940</v>
+      </c>
+      <c r="AF38" s="193">
+        <v>-328.471429</v>
+      </c>
+      <c r="AG38" s="193">
+        <v>-240</v>
+      </c>
+      <c r="AH38" s="194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="N39" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="O39" s="136">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="P39" s="137">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="Q39" s="137">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="R39" s="138">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="AD39" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE39" s="192" cm="1">
+        <f t="array" ref="AE39:AH39" xml:space="preserve"> O100:R100 - $O$54:$R$54</f>
+        <v>-99940</v>
+      </c>
+      <c r="AF39" s="193">
+        <v>-256.80476199999998</v>
+      </c>
+      <c r="AG39" s="193">
+        <v>-245</v>
+      </c>
+      <c r="AH39" s="194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="N40" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="O40" s="136">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="P40" s="137">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="Q40" s="137">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="R40" s="138">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="AD40" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE40" s="192" cm="1">
+        <f t="array" ref="AE40:AH40" xml:space="preserve"> O101:R101 - $O$54:$R$54</f>
+        <v>-99940</v>
+      </c>
+      <c r="AF40" s="193">
+        <v>-223.471429</v>
+      </c>
+      <c r="AG40" s="193">
+        <v>-250</v>
+      </c>
+      <c r="AH40" s="194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="N41" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="O41" s="136">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="P41" s="137">
+        <f t="shared" ref="P41:P45" si="6">P40-5</f>
+        <v>125</v>
+      </c>
+      <c r="Q41" s="137">
+        <f t="shared" ref="Q41:Q45" si="7">Q40-5</f>
+        <v>45</v>
+      </c>
+      <c r="R41" s="138">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="AD41" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE41" s="192" cm="1">
+        <f t="array" ref="AE41:AH41" xml:space="preserve"> O102:R102 - $O$54:$R$54</f>
+        <v>-99940</v>
+      </c>
+      <c r="AF41" s="193">
+        <v>-228.471429</v>
+      </c>
+      <c r="AG41" s="193">
+        <v>-255</v>
+      </c>
+      <c r="AH41" s="194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="N42" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="O42" s="136">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="P42" s="137">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="Q42" s="137">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="R42" s="138">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="AD42" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE42" s="192" cm="1">
+        <f t="array" ref="AE42:AH42" xml:space="preserve"> O103:R103 - $O$54:$R$54</f>
+        <v>-99940</v>
+      </c>
+      <c r="AF42" s="193">
+        <v>-195.13809500000002</v>
+      </c>
+      <c r="AG42" s="193">
+        <v>-260</v>
+      </c>
+      <c r="AH42" s="194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="N43" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="O43" s="136">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="P43" s="137">
+        <f t="shared" si="6"/>
+        <v>115</v>
+      </c>
+      <c r="Q43" s="137">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="R43" s="138">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="AD43" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE43" s="192" cm="1">
+        <f t="array" ref="AE43:AH43" xml:space="preserve"> O104:R104 - $O$54:$R$54</f>
+        <v>-99940</v>
+      </c>
+      <c r="AF43" s="193">
+        <v>-161.80476200000004</v>
+      </c>
+      <c r="AG43" s="193">
+        <v>-265</v>
+      </c>
+      <c r="AH43" s="194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="N44" s="127" t="s">
+        <v>103</v>
+      </c>
+      <c r="O44" s="136">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="P44" s="137">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="Q44" s="137">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="R44" s="138">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="AD44" s="127" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE44" s="192" cm="1">
+        <f t="array" ref="AE44:AH44" xml:space="preserve"> O105:R105 - $O$54:$R$54</f>
+        <v>-99940</v>
+      </c>
+      <c r="AF44" s="193">
+        <v>-128.471428</v>
+      </c>
+      <c r="AG44" s="193">
+        <v>-270</v>
+      </c>
+      <c r="AH44" s="194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="N45" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="O45" s="136">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="P45" s="141">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="Q45" s="141">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="R45" s="138">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="AD45" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE45" s="195" cm="1">
+        <f t="array" ref="AE45:AH45" xml:space="preserve"> O106:R106 - $O$54:$R$54</f>
+        <v>-99940</v>
+      </c>
+      <c r="AF45" s="196">
+        <v>-95.138095000000021</v>
+      </c>
+      <c r="AG45" s="196">
+        <v>-275</v>
+      </c>
+      <c r="AH45" s="197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="O46" s="137"/>
+      <c r="P46" s="137"/>
+      <c r="Q46" s="137"/>
+      <c r="R46" s="137"/>
+      <c r="AE46" s="160"/>
+      <c r="AF46" s="160"/>
+      <c r="AG46" s="160"/>
+      <c r="AH46" s="160"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="O47" s="137" t="s">
+        <v>135</v>
+      </c>
+      <c r="P47" s="137"/>
+      <c r="Q47" s="137"/>
+      <c r="R47" s="137"/>
+      <c r="AE47" s="160"/>
+      <c r="AF47" s="160"/>
+      <c r="AG47" s="160"/>
+      <c r="AH47" s="160"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="D48" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="127" t="s">
+        <v>93</v>
+      </c>
+      <c r="O48" s="208">
+        <v>0.03</v>
+      </c>
+      <c r="P48" s="137"/>
+      <c r="Q48" s="137"/>
+      <c r="R48" s="137"/>
+      <c r="AE48" s="160"/>
+      <c r="AF48" s="160"/>
+      <c r="AG48" s="160"/>
+      <c r="AH48" s="160"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O49" s="127" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="D50" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="127" t="s">
+        <v>86</v>
+      </c>
+      <c r="O50" s="144">
+        <v>1</v>
+      </c>
+      <c r="P50" s="145">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="145">
+        <v>2</v>
+      </c>
+      <c r="R50" s="146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O51" s="127" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="D52" s="127" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="127" t="s">
+        <v>86</v>
+      </c>
+      <c r="O52" s="144" t="s">
+        <v>118</v>
+      </c>
+      <c r="P52" s="145">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="145">
+        <v>6</v>
+      </c>
+      <c r="R52" s="146" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O53" s="127" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="D54" s="127" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="O54" s="144">
+        <v>100000</v>
+      </c>
+      <c r="P54" s="145">
+        <v>500</v>
+      </c>
+      <c r="Q54" s="145">
+        <v>300</v>
+      </c>
+      <c r="R54" s="145">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O55" s="127" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="D56" s="127" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="127" t="s">
+        <v>93</v>
+      </c>
+      <c r="O56" s="144">
+        <v>1</v>
+      </c>
+      <c r="P56" s="126">
+        <v>0.3</v>
+      </c>
+      <c r="Q56" s="126">
+        <v>0.4</v>
+      </c>
+      <c r="R56" s="146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O57" s="137" t="s">
+        <v>127</v>
+      </c>
+      <c r="P57" s="125"/>
+      <c r="Q57" s="125"/>
+      <c r="R57" s="137"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="D58" s="127" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="127" t="s">
+        <v>93</v>
+      </c>
+      <c r="O58" s="144">
+        <v>1</v>
+      </c>
+      <c r="P58" s="126">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="126">
+        <v>1</v>
+      </c>
+      <c r="R58" s="146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O59" s="137" t="s">
+        <v>138</v>
+      </c>
+      <c r="P59" s="125"/>
+      <c r="Q59" s="125"/>
+      <c r="R59" s="137"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="D60" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="O60" s="210">
+        <v>0.9</v>
+      </c>
+      <c r="P60" s="125"/>
+      <c r="Q60" s="125"/>
+      <c r="R60" s="137"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="D61" s="127" t="s">
+        <v>137</v>
+      </c>
+      <c r="O61" s="210">
+        <v>0.7</v>
+      </c>
+      <c r="P61" s="125"/>
+      <c r="Q61" s="125"/>
+      <c r="R61" s="137"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O63" s="127" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A64" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="127" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="N64" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="O64" s="147">
+        <v>0</v>
+      </c>
+      <c r="P64" s="148">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="148">
+        <v>0</v>
+      </c>
+      <c r="R64" s="149">
+        <v>0</v>
+      </c>
+      <c r="T64" s="113"/>
+      <c r="U64" s="113"/>
+      <c r="V64" s="113"/>
+      <c r="W64" s="113"/>
+    </row>
+    <row r="65" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A65" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="N65" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="O65" s="150">
+        <v>0</v>
+      </c>
+      <c r="P65" s="151">
+        <v>31.528570999999999</v>
+      </c>
+      <c r="Q65" s="151">
+        <v>0</v>
+      </c>
+      <c r="R65" s="152">
+        <v>0</v>
+      </c>
+      <c r="T65" s="113"/>
+      <c r="U65" s="113"/>
+      <c r="V65" s="113"/>
+      <c r="W65" s="113"/>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A66" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="N66" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="O66" s="150">
+        <v>0</v>
+      </c>
+      <c r="P66" s="151">
+        <v>76.666667000000004</v>
+      </c>
+      <c r="Q66" s="151">
+        <v>0</v>
+      </c>
+      <c r="R66" s="152">
+        <v>0</v>
+      </c>
+      <c r="T66" s="113"/>
+      <c r="U66" s="113"/>
+      <c r="V66" s="113"/>
+      <c r="W66" s="113"/>
+    </row>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A67" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="N67" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="O67" s="150">
+        <v>0</v>
+      </c>
+      <c r="P67" s="151">
+        <v>38.333333000000003</v>
+      </c>
+      <c r="Q67" s="151">
+        <v>0</v>
+      </c>
+      <c r="R67" s="152">
+        <v>0</v>
+      </c>
+      <c r="T67" s="113"/>
+      <c r="U67" s="113"/>
+      <c r="V67" s="113"/>
+      <c r="W67" s="113"/>
+    </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A68" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="N68" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="O68" s="150">
+        <v>0</v>
+      </c>
+      <c r="P68" s="151">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="151">
+        <v>0</v>
+      </c>
+      <c r="R68" s="152">
+        <v>0</v>
+      </c>
+      <c r="T68" s="113"/>
+      <c r="U68" s="113"/>
+      <c r="V68" s="113"/>
+      <c r="W68" s="113"/>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A69" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="N69" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="O69" s="150">
+        <v>0</v>
+      </c>
+      <c r="P69" s="151">
+        <v>69.861904999999993</v>
+      </c>
+      <c r="Q69" s="151">
+        <v>0</v>
+      </c>
+      <c r="R69" s="152">
+        <v>0</v>
+      </c>
+      <c r="T69" s="113"/>
+      <c r="U69" s="113"/>
+      <c r="V69" s="113"/>
+      <c r="W69" s="113"/>
+    </row>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A70" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="N70" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="O70" s="150">
+        <v>0</v>
+      </c>
+      <c r="P70" s="151">
+        <v>83.471429000000001</v>
+      </c>
+      <c r="Q70" s="151">
+        <v>0</v>
+      </c>
+      <c r="R70" s="152">
+        <v>0</v>
+      </c>
+      <c r="T70" s="113"/>
+      <c r="U70" s="113"/>
+      <c r="V70" s="113"/>
+      <c r="W70" s="113"/>
+    </row>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A71" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="N71" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="O71" s="150">
+        <v>0</v>
+      </c>
+      <c r="P71" s="151">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="151">
+        <v>0</v>
+      </c>
+      <c r="R71" s="152">
+        <v>0</v>
+      </c>
+      <c r="T71" s="113"/>
+      <c r="U71" s="113"/>
+      <c r="V71" s="113"/>
+      <c r="W71" s="113"/>
+    </row>
+    <row r="72" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A72" s="127" t="s">
+        <v>103</v>
+      </c>
+      <c r="N72" s="127" t="s">
+        <v>103</v>
+      </c>
+      <c r="O72" s="150">
+        <v>0</v>
+      </c>
+      <c r="P72" s="151">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="151">
+        <v>0</v>
+      </c>
+      <c r="R72" s="152">
+        <v>0</v>
+      </c>
+      <c r="T72" s="113"/>
+      <c r="U72" s="113"/>
+      <c r="V72" s="113"/>
+      <c r="W72" s="113"/>
+    </row>
+    <row r="73" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A73" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="N73" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="O73" s="153">
+        <v>0</v>
+      </c>
+      <c r="P73" s="154">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="154">
+        <v>0</v>
+      </c>
+      <c r="R73" s="155">
+        <v>0</v>
+      </c>
+      <c r="T73" s="113"/>
+      <c r="U73" s="113"/>
+      <c r="V73" s="113"/>
+      <c r="W73" s="113"/>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="O74" s="127" t="s">
+        <v>116</v>
+      </c>
+      <c r="T74" s="127" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE74" s="127" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="D75" s="127" t="s">
+        <v>113</v>
+      </c>
+      <c r="E75" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="N75" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="O75" s="156" cm="1">
+        <f t="array" ref="O75:O84">MMULT($T$75:$AC$84,O64:O73)</f>
+        <v>0</v>
+      </c>
+      <c r="P75" s="157" cm="1">
+        <f t="array" ref="P75:P84">MMULT($T$75:$AC$84,P64:P73)</f>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="157" cm="1">
+        <f t="array" ref="Q75:Q84">MMULT($AE$75:$AN$84,Q64:Q73)</f>
+        <v>0</v>
+      </c>
+      <c r="R75" s="158" cm="1">
+        <f t="array" ref="R75:R84">MMULT($T$75:$AC$84,R64:R73)</f>
+        <v>0</v>
+      </c>
+      <c r="T75" s="132">
+        <v>0</v>
+      </c>
+      <c r="U75" s="133">
+        <v>0</v>
+      </c>
+      <c r="V75" s="133">
+        <v>0</v>
+      </c>
+      <c r="W75" s="133">
+        <v>0</v>
+      </c>
+      <c r="X75" s="133">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="133">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="133">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="133">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="133">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="134">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="132">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="133">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="133">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="133">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="133">
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="133">
+        <v>0</v>
+      </c>
+      <c r="AK75" s="133">
+        <v>0</v>
+      </c>
+      <c r="AL75" s="133">
+        <v>0</v>
+      </c>
+      <c r="AM75" s="133">
+        <v>0</v>
+      </c>
+      <c r="AN75" s="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="N76" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="O76" s="159">
+        <v>0</v>
+      </c>
+      <c r="P76" s="160">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="160">
+        <v>0</v>
+      </c>
+      <c r="R76" s="161">
+        <v>0</v>
+      </c>
+      <c r="T76" s="136">
+        <v>1</v>
+      </c>
+      <c r="U76" s="137">
+        <v>0</v>
+      </c>
+      <c r="V76" s="137">
+        <v>0</v>
+      </c>
+      <c r="W76" s="137">
+        <v>0</v>
+      </c>
+      <c r="X76" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="138">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="137">
+        <v>0</v>
+      </c>
+      <c r="AG76" s="137">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="137">
+        <v>0</v>
+      </c>
+      <c r="AI76" s="137">
+        <v>0</v>
+      </c>
+      <c r="AJ76" s="137">
+        <v>0</v>
+      </c>
+      <c r="AK76" s="137">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="137">
+        <v>0</v>
+      </c>
+      <c r="AM76" s="137">
+        <v>0</v>
+      </c>
+      <c r="AN76" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="N77" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="O77" s="159">
+        <v>0</v>
+      </c>
+      <c r="P77" s="160">
+        <v>31.528570999999999</v>
+      </c>
+      <c r="Q77" s="160">
+        <v>0</v>
+      </c>
+      <c r="R77" s="161">
+        <v>0</v>
+      </c>
+      <c r="T77" s="136">
+        <v>0</v>
+      </c>
+      <c r="U77" s="137">
+        <v>1</v>
+      </c>
+      <c r="V77" s="137">
+        <v>0</v>
+      </c>
+      <c r="W77" s="137">
+        <v>0</v>
+      </c>
+      <c r="X77" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="138">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="136">
+        <v>1</v>
+      </c>
+      <c r="AF77" s="137">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="137">
+        <v>0</v>
+      </c>
+      <c r="AH77" s="137">
+        <v>0</v>
+      </c>
+      <c r="AI77" s="137">
+        <v>0</v>
+      </c>
+      <c r="AJ77" s="137">
+        <v>0</v>
+      </c>
+      <c r="AK77" s="137">
+        <v>0</v>
+      </c>
+      <c r="AL77" s="137">
+        <v>0</v>
+      </c>
+      <c r="AM77" s="137">
+        <v>0</v>
+      </c>
+      <c r="AN77" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="N78" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="O78" s="159">
+        <v>0</v>
+      </c>
+      <c r="P78" s="160">
+        <v>76.666667000000004</v>
+      </c>
+      <c r="Q78" s="160">
+        <v>0</v>
+      </c>
+      <c r="R78" s="161">
+        <v>0</v>
+      </c>
+      <c r="T78" s="136">
+        <v>0</v>
+      </c>
+      <c r="U78" s="137">
+        <v>0</v>
+      </c>
+      <c r="V78" s="137">
+        <v>1</v>
+      </c>
+      <c r="W78" s="137">
+        <v>0</v>
+      </c>
+      <c r="X78" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="138">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF78" s="137">
+        <v>1</v>
+      </c>
+      <c r="AG78" s="137">
+        <v>0</v>
+      </c>
+      <c r="AH78" s="137">
+        <v>0</v>
+      </c>
+      <c r="AI78" s="137">
+        <v>0</v>
+      </c>
+      <c r="AJ78" s="137">
+        <v>0</v>
+      </c>
+      <c r="AK78" s="137">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="137">
+        <v>0</v>
+      </c>
+      <c r="AM78" s="137">
+        <v>0</v>
+      </c>
+      <c r="AN78" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="N79" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="O79" s="159">
+        <v>0</v>
+      </c>
+      <c r="P79" s="160">
+        <v>38.333333000000003</v>
+      </c>
+      <c r="Q79" s="160">
+        <v>0</v>
+      </c>
+      <c r="R79" s="161">
+        <v>0</v>
+      </c>
+      <c r="T79" s="136">
+        <v>0</v>
+      </c>
+      <c r="U79" s="137">
+        <v>0</v>
+      </c>
+      <c r="V79" s="137">
+        <v>0</v>
+      </c>
+      <c r="W79" s="137">
+        <v>1</v>
+      </c>
+      <c r="X79" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="138">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF79" s="137">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="137">
+        <v>1</v>
+      </c>
+      <c r="AH79" s="137">
+        <v>0</v>
+      </c>
+      <c r="AI79" s="137">
+        <v>0</v>
+      </c>
+      <c r="AJ79" s="137">
+        <v>0</v>
+      </c>
+      <c r="AK79" s="137">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="137">
+        <v>0</v>
+      </c>
+      <c r="AM79" s="137">
+        <v>0</v>
+      </c>
+      <c r="AN79" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="N80" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="O80" s="159">
+        <v>0</v>
+      </c>
+      <c r="P80" s="160">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="160">
+        <v>0</v>
+      </c>
+      <c r="R80" s="161">
+        <v>0</v>
+      </c>
+      <c r="T80" s="136">
+        <v>0</v>
+      </c>
+      <c r="U80" s="137">
+        <v>0</v>
+      </c>
+      <c r="V80" s="137">
+        <v>0</v>
+      </c>
+      <c r="W80" s="137">
+        <v>0</v>
+      </c>
+      <c r="X80" s="137">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="138">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF80" s="137">
+        <v>0</v>
+      </c>
+      <c r="AG80" s="137">
+        <v>0</v>
+      </c>
+      <c r="AH80" s="137">
+        <v>1</v>
+      </c>
+      <c r="AI80" s="137">
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="137">
+        <v>0</v>
+      </c>
+      <c r="AK80" s="137">
+        <v>0</v>
+      </c>
+      <c r="AL80" s="137">
+        <v>0</v>
+      </c>
+      <c r="AM80" s="137">
+        <v>0</v>
+      </c>
+      <c r="AN80" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="N81" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="O81" s="159">
+        <v>0</v>
+      </c>
+      <c r="P81" s="160">
+        <v>69.861904999999993</v>
+      </c>
+      <c r="Q81" s="160">
+        <v>0</v>
+      </c>
+      <c r="R81" s="161">
+        <v>0</v>
+      </c>
+      <c r="T81" s="136">
+        <v>0</v>
+      </c>
+      <c r="U81" s="137">
+        <v>0</v>
+      </c>
+      <c r="V81" s="137">
+        <v>0</v>
+      </c>
+      <c r="W81" s="137">
+        <v>0</v>
+      </c>
+      <c r="X81" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="137">
+        <v>1</v>
+      </c>
+      <c r="Z81" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="138">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="137">
+        <v>0</v>
+      </c>
+      <c r="AG81" s="137">
+        <v>0</v>
+      </c>
+      <c r="AH81" s="137">
+        <v>0</v>
+      </c>
+      <c r="AI81" s="137">
+        <v>1</v>
+      </c>
+      <c r="AJ81" s="137">
+        <v>0</v>
+      </c>
+      <c r="AK81" s="137">
+        <v>0</v>
+      </c>
+      <c r="AL81" s="137">
+        <v>0</v>
+      </c>
+      <c r="AM81" s="137">
+        <v>0</v>
+      </c>
+      <c r="AN81" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="N82" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="O82" s="159">
+        <v>0</v>
+      </c>
+      <c r="P82" s="160">
+        <v>83.471429000000001</v>
+      </c>
+      <c r="Q82" s="160">
+        <v>0</v>
+      </c>
+      <c r="R82" s="161">
+        <v>0</v>
+      </c>
+      <c r="T82" s="136">
+        <v>0</v>
+      </c>
+      <c r="U82" s="137">
+        <v>0</v>
+      </c>
+      <c r="V82" s="137">
+        <v>0</v>
+      </c>
+      <c r="W82" s="137">
+        <v>0</v>
+      </c>
+      <c r="X82" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="137">
+        <v>1</v>
+      </c>
+      <c r="AA82" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="138">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="137">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="137">
+        <v>0</v>
+      </c>
+      <c r="AH82" s="137">
+        <v>0</v>
+      </c>
+      <c r="AI82" s="137">
+        <v>0</v>
+      </c>
+      <c r="AJ82" s="137">
+        <v>1</v>
+      </c>
+      <c r="AK82" s="137">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="137">
+        <v>0</v>
+      </c>
+      <c r="AM82" s="137">
+        <v>0</v>
+      </c>
+      <c r="AN82" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="N83" s="127" t="s">
+        <v>103</v>
+      </c>
+      <c r="O83" s="159">
+        <v>0</v>
+      </c>
+      <c r="P83" s="160">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="160">
+        <v>0</v>
+      </c>
+      <c r="R83" s="161">
+        <v>0</v>
+      </c>
+      <c r="T83" s="136">
+        <v>0</v>
+      </c>
+      <c r="U83" s="137">
+        <v>0</v>
+      </c>
+      <c r="V83" s="137">
+        <v>0</v>
+      </c>
+      <c r="W83" s="137">
+        <v>0</v>
+      </c>
+      <c r="X83" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="137">
+        <v>1</v>
+      </c>
+      <c r="AB83" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="138">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="137">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="137">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="137">
+        <v>0</v>
+      </c>
+      <c r="AI83" s="137">
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="137">
+        <v>0</v>
+      </c>
+      <c r="AK83" s="137">
+        <v>1</v>
+      </c>
+      <c r="AL83" s="137">
+        <v>0</v>
+      </c>
+      <c r="AM83" s="137">
+        <v>0</v>
+      </c>
+      <c r="AN83" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="N84" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="O84" s="162">
+        <v>0</v>
+      </c>
+      <c r="P84" s="163">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="163">
+        <v>0</v>
+      </c>
+      <c r="R84" s="164">
+        <v>0</v>
+      </c>
+      <c r="T84" s="140">
+        <v>0</v>
+      </c>
+      <c r="U84" s="141">
+        <v>0</v>
+      </c>
+      <c r="V84" s="141">
+        <v>0</v>
+      </c>
+      <c r="W84" s="141">
+        <v>0</v>
+      </c>
+      <c r="X84" s="141">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="141">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="141">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="141">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="141">
+        <v>1</v>
+      </c>
+      <c r="AC84" s="142">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="140">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="141">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="141">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="141">
+        <v>0</v>
+      </c>
+      <c r="AI84" s="141">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="141">
+        <v>0</v>
+      </c>
+      <c r="AK84" s="141">
+        <v>0</v>
+      </c>
+      <c r="AL84" s="141">
+        <v>1</v>
+      </c>
+      <c r="AM84" s="141">
+        <v>0</v>
+      </c>
+      <c r="AN84" s="142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="O85" s="127" t="s">
+        <v>123</v>
+      </c>
+      <c r="T85" s="127" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE85" s="127" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="D86" s="127" t="s">
+        <v>119</v>
+      </c>
+      <c r="E86" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="N86" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="O86" s="156" cm="1">
+        <f t="array" ref="O86:O95">MMULT($T$86:$AC$95,O64:O73)</f>
+        <v>0</v>
+      </c>
+      <c r="P86" s="157" cm="1">
+        <f t="array" ref="P86:P95">MMULT($T$86:$AC$95,P64:P73)</f>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="157" cm="1">
+        <f t="array" ref="Q86:Q95">MMULT($AE$86:$AN$95,Q64:Q73)</f>
+        <v>0</v>
+      </c>
+      <c r="R86" s="158" cm="1">
+        <f t="array" ref="R86:R95">MMULT($T$86:$AC$95,R64:R73)</f>
+        <v>0</v>
+      </c>
+      <c r="T86" s="132">
+        <v>0</v>
+      </c>
+      <c r="U86" s="133">
+        <v>0</v>
+      </c>
+      <c r="V86" s="133">
+        <v>0</v>
+      </c>
+      <c r="W86" s="133">
+        <v>0</v>
+      </c>
+      <c r="X86" s="133">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="133">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="133">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="133">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="133">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="134">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="132">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="133">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="133">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="133">
+        <v>0</v>
+      </c>
+      <c r="AI86" s="133">
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="133">
+        <v>0</v>
+      </c>
+      <c r="AK86" s="133">
+        <v>0</v>
+      </c>
+      <c r="AL86" s="133">
+        <v>0</v>
+      </c>
+      <c r="AM86" s="133">
+        <v>0</v>
+      </c>
+      <c r="AN86" s="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="N87" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="O87" s="136">
+        <v>0</v>
+      </c>
+      <c r="P87" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="137">
+        <v>0</v>
+      </c>
+      <c r="R87" s="138">
+        <v>0</v>
+      </c>
+      <c r="T87" s="136">
+        <v>0</v>
+      </c>
+      <c r="U87" s="137">
+        <v>0</v>
+      </c>
+      <c r="V87" s="137">
+        <v>0</v>
+      </c>
+      <c r="W87" s="137">
+        <v>0</v>
+      </c>
+      <c r="X87" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="138">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="137">
+        <v>0</v>
+      </c>
+      <c r="AG87" s="137">
+        <v>0</v>
+      </c>
+      <c r="AH87" s="137">
+        <v>0</v>
+      </c>
+      <c r="AI87" s="137">
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="137">
+        <v>0</v>
+      </c>
+      <c r="AK87" s="137">
+        <v>0</v>
+      </c>
+      <c r="AL87" s="137">
+        <v>0</v>
+      </c>
+      <c r="AM87" s="137">
+        <v>0</v>
+      </c>
+      <c r="AN87" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="N88" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="O88" s="136">
+        <v>0</v>
+      </c>
+      <c r="P88" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="137">
+        <v>0</v>
+      </c>
+      <c r="R88" s="138">
+        <v>0</v>
+      </c>
+      <c r="T88" s="136">
+        <v>0</v>
+      </c>
+      <c r="U88" s="137">
+        <v>0</v>
+      </c>
+      <c r="V88" s="137">
+        <v>0</v>
+      </c>
+      <c r="W88" s="137">
+        <v>0</v>
+      </c>
+      <c r="X88" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="138">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="137">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="137">
+        <v>0</v>
+      </c>
+      <c r="AH88" s="137">
+        <v>0</v>
+      </c>
+      <c r="AI88" s="137">
+        <v>0</v>
+      </c>
+      <c r="AJ88" s="137">
+        <v>0</v>
+      </c>
+      <c r="AK88" s="137">
+        <v>0</v>
+      </c>
+      <c r="AL88" s="137">
+        <v>0</v>
+      </c>
+      <c r="AM88" s="137">
+        <v>0</v>
+      </c>
+      <c r="AN88" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="N89" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="O89" s="136">
+        <v>0</v>
+      </c>
+      <c r="P89" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="137">
+        <v>0</v>
+      </c>
+      <c r="R89" s="138">
+        <v>0</v>
+      </c>
+      <c r="T89" s="136">
+        <v>0</v>
+      </c>
+      <c r="U89" s="137">
+        <v>0</v>
+      </c>
+      <c r="V89" s="137">
+        <v>0</v>
+      </c>
+      <c r="W89" s="137">
+        <v>0</v>
+      </c>
+      <c r="X89" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="138">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="137">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="137">
+        <v>0</v>
+      </c>
+      <c r="AH89" s="137">
+        <v>0</v>
+      </c>
+      <c r="AI89" s="137">
+        <v>0</v>
+      </c>
+      <c r="AJ89" s="137">
+        <v>0</v>
+      </c>
+      <c r="AK89" s="137">
+        <v>0</v>
+      </c>
+      <c r="AL89" s="137">
+        <v>0</v>
+      </c>
+      <c r="AM89" s="137">
+        <v>0</v>
+      </c>
+      <c r="AN89" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="N90" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="O90" s="136">
+        <v>0</v>
+      </c>
+      <c r="P90" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="137">
+        <v>0</v>
+      </c>
+      <c r="R90" s="138">
+        <v>0</v>
+      </c>
+      <c r="T90" s="136">
+        <v>0</v>
+      </c>
+      <c r="U90" s="137">
+        <v>0</v>
+      </c>
+      <c r="V90" s="137">
+        <v>0</v>
+      </c>
+      <c r="W90" s="137">
+        <v>0</v>
+      </c>
+      <c r="X90" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="138">
+        <v>0</v>
+      </c>
+      <c r="AE90" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF90" s="137">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="137">
+        <v>0</v>
+      </c>
+      <c r="AH90" s="137">
+        <v>0</v>
+      </c>
+      <c r="AI90" s="137">
+        <v>0</v>
+      </c>
+      <c r="AJ90" s="137">
+        <v>0</v>
+      </c>
+      <c r="AK90" s="137">
+        <v>0</v>
+      </c>
+      <c r="AL90" s="137">
+        <v>0</v>
+      </c>
+      <c r="AM90" s="137">
+        <v>0</v>
+      </c>
+      <c r="AN90" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="N91" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="O91" s="136">
+        <v>0</v>
+      </c>
+      <c r="P91" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="137">
+        <v>0</v>
+      </c>
+      <c r="R91" s="138">
+        <v>0</v>
+      </c>
+      <c r="T91" s="136">
+        <v>1</v>
+      </c>
+      <c r="U91" s="137">
+        <v>0</v>
+      </c>
+      <c r="V91" s="137">
+        <v>0</v>
+      </c>
+      <c r="W91" s="137">
+        <v>0</v>
+      </c>
+      <c r="X91" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="138">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="137">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="137">
+        <v>0</v>
+      </c>
+      <c r="AH91" s="137">
+        <v>0</v>
+      </c>
+      <c r="AI91" s="137">
+        <v>0</v>
+      </c>
+      <c r="AJ91" s="137">
+        <v>0</v>
+      </c>
+      <c r="AK91" s="137">
+        <v>0</v>
+      </c>
+      <c r="AL91" s="137">
+        <v>0</v>
+      </c>
+      <c r="AM91" s="137">
+        <v>0</v>
+      </c>
+      <c r="AN91" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="N92" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="O92" s="136">
+        <v>0</v>
+      </c>
+      <c r="P92" s="137">
+        <v>31.528570999999999</v>
+      </c>
+      <c r="Q92" s="137">
+        <v>0</v>
+      </c>
+      <c r="R92" s="138">
+        <v>0</v>
+      </c>
+      <c r="T92" s="136">
+        <v>0</v>
+      </c>
+      <c r="U92" s="137">
+        <v>1</v>
+      </c>
+      <c r="V92" s="137">
+        <v>0</v>
+      </c>
+      <c r="W92" s="137">
+        <v>0</v>
+      </c>
+      <c r="X92" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="138">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="137">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="137">
+        <v>0</v>
+      </c>
+      <c r="AH92" s="137">
+        <v>0</v>
+      </c>
+      <c r="AI92" s="137">
+        <v>0</v>
+      </c>
+      <c r="AJ92" s="137">
+        <v>0</v>
+      </c>
+      <c r="AK92" s="137">
+        <v>0</v>
+      </c>
+      <c r="AL92" s="137">
+        <v>0</v>
+      </c>
+      <c r="AM92" s="137">
+        <v>0</v>
+      </c>
+      <c r="AN92" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="N93" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="O93" s="136">
+        <v>0</v>
+      </c>
+      <c r="P93" s="137">
+        <v>76.666667000000004</v>
+      </c>
+      <c r="Q93" s="137">
+        <v>0</v>
+      </c>
+      <c r="R93" s="138">
+        <v>0</v>
+      </c>
+      <c r="T93" s="136">
+        <v>0</v>
+      </c>
+      <c r="U93" s="137">
+        <v>0</v>
+      </c>
+      <c r="V93" s="137">
+        <v>1</v>
+      </c>
+      <c r="W93" s="137">
+        <v>0</v>
+      </c>
+      <c r="X93" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="138">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="136">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="137">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="137">
+        <v>0</v>
+      </c>
+      <c r="AH93" s="137">
+        <v>0</v>
+      </c>
+      <c r="AI93" s="137">
+        <v>0</v>
+      </c>
+      <c r="AJ93" s="137">
+        <v>0</v>
+      </c>
+      <c r="AK93" s="137">
+        <v>0</v>
+      </c>
+      <c r="AL93" s="137">
+        <v>0</v>
+      </c>
+      <c r="AM93" s="137">
+        <v>0</v>
+      </c>
+      <c r="AN93" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="N94" s="127" t="s">
+        <v>103</v>
+      </c>
+      <c r="O94" s="136">
+        <v>0</v>
+      </c>
+      <c r="P94" s="137">
+        <v>38.333333000000003</v>
+      </c>
+      <c r="Q94" s="137">
+        <v>0</v>
+      </c>
+      <c r="R94" s="138">
+        <v>0</v>
+      </c>
+      <c r="T94" s="136">
+        <v>0</v>
+      </c>
+      <c r="U94" s="137">
+        <v>0</v>
+      </c>
+      <c r="V94" s="137">
+        <v>0</v>
+      </c>
+      <c r="W94" s="137">
+        <v>1</v>
+      </c>
+      <c r="X94" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="138">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="136">
+        <v>1</v>
+      </c>
+      <c r="AF94" s="137">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="137">
+        <v>0</v>
+      </c>
+      <c r="AH94" s="137">
+        <v>0</v>
+      </c>
+      <c r="AI94" s="137">
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="137">
+        <v>0</v>
+      </c>
+      <c r="AK94" s="137">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="137">
+        <v>0</v>
+      </c>
+      <c r="AM94" s="137">
+        <v>0</v>
+      </c>
+      <c r="AN94" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="N95" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="O95" s="140">
+        <v>0</v>
+      </c>
+      <c r="P95" s="141">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="141">
+        <v>0</v>
+      </c>
+      <c r="R95" s="142">
+        <v>0</v>
+      </c>
+      <c r="T95" s="140">
+        <v>0</v>
+      </c>
+      <c r="U95" s="141">
+        <v>0</v>
+      </c>
+      <c r="V95" s="141">
+        <v>0</v>
+      </c>
+      <c r="W95" s="141">
+        <v>0</v>
+      </c>
+      <c r="X95" s="141">
+        <v>1</v>
+      </c>
+      <c r="Y95" s="141">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="141">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="141">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="141">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="142">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="140">
+        <v>0</v>
+      </c>
+      <c r="AF95" s="141">
+        <v>1</v>
+      </c>
+      <c r="AG95" s="141">
+        <v>0</v>
+      </c>
+      <c r="AH95" s="141">
+        <v>0</v>
+      </c>
+      <c r="AI95" s="141">
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="141">
+        <v>0</v>
+      </c>
+      <c r="AK95" s="141">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="141">
+        <v>0</v>
+      </c>
+      <c r="AM95" s="141">
+        <v>0</v>
+      </c>
+      <c r="AN95" s="142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:40" x14ac:dyDescent="0.35">
+      <c r="O96" s="127" t="s">
+        <v>125</v>
+      </c>
+      <c r="T96" s="127" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="D97" s="127" t="s">
+        <v>117</v>
+      </c>
+      <c r="E97" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="N97" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="O97" s="132" cm="1">
+        <f t="array" ref="O97:R106">O36:R45 + MMULT(T97:AC106,O75:R84) - O86:R95</f>
+        <v>60</v>
+      </c>
+      <c r="P97" s="133">
+        <v>150</v>
+      </c>
+      <c r="Q97" s="133">
+        <v>70</v>
+      </c>
+      <c r="R97" s="134">
+        <v>30</v>
+      </c>
+      <c r="T97" s="132">
+        <v>1</v>
+      </c>
+      <c r="U97" s="133">
+        <v>0</v>
+      </c>
+      <c r="V97" s="133">
+        <v>0</v>
+      </c>
+      <c r="W97" s="133">
+        <v>0</v>
+      </c>
+      <c r="X97" s="133">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="133">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="133">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="133">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="133">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="N98" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="O98" s="136">
+        <v>60</v>
+      </c>
+      <c r="P98" s="137">
+        <v>145</v>
+      </c>
+      <c r="Q98" s="137">
+        <v>65</v>
+      </c>
+      <c r="R98" s="138">
+        <v>30</v>
+      </c>
+      <c r="T98" s="136">
+        <v>1</v>
+      </c>
+      <c r="U98" s="137">
+        <v>1</v>
+      </c>
+      <c r="V98" s="137">
+        <v>0</v>
+      </c>
+      <c r="W98" s="137">
+        <v>0</v>
+      </c>
+      <c r="X98" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="N99" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="O99" s="136">
+        <v>60</v>
+      </c>
+      <c r="P99" s="137">
+        <v>171.528571</v>
+      </c>
+      <c r="Q99" s="137">
+        <v>60</v>
+      </c>
+      <c r="R99" s="138">
+        <v>30</v>
+      </c>
+      <c r="T99" s="136">
+        <v>1</v>
+      </c>
+      <c r="U99" s="137">
+        <v>1</v>
+      </c>
+      <c r="V99" s="137">
+        <v>1</v>
+      </c>
+      <c r="W99" s="137">
+        <v>0</v>
+      </c>
+      <c r="X99" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="N100" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="O100" s="136">
+        <v>60</v>
+      </c>
+      <c r="P100" s="137">
+        <v>243.19523800000002</v>
+      </c>
+      <c r="Q100" s="137">
+        <v>55</v>
+      </c>
+      <c r="R100" s="138">
+        <v>30</v>
+      </c>
+      <c r="T100" s="136">
+        <v>1</v>
+      </c>
+      <c r="U100" s="137">
+        <v>1</v>
+      </c>
+      <c r="V100" s="137">
+        <v>1</v>
+      </c>
+      <c r="W100" s="137">
+        <v>1</v>
+      </c>
+      <c r="X100" s="137">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="N101" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="O101" s="136">
+        <v>60</v>
+      </c>
+      <c r="P101" s="137">
+        <v>276.528571</v>
+      </c>
+      <c r="Q101" s="137">
+        <v>50</v>
+      </c>
+      <c r="R101" s="138">
+        <v>30</v>
+      </c>
+      <c r="T101" s="136">
+        <v>1</v>
+      </c>
+      <c r="U101" s="137">
+        <v>1</v>
+      </c>
+      <c r="V101" s="137">
+        <v>1</v>
+      </c>
+      <c r="W101" s="137">
+        <v>1</v>
+      </c>
+      <c r="X101" s="137">
+        <v>1</v>
+      </c>
+      <c r="Y101" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="N102" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="O102" s="136">
+        <v>60</v>
+      </c>
+      <c r="P102" s="137">
+        <v>271.528571</v>
+      </c>
+      <c r="Q102" s="137">
+        <v>45</v>
+      </c>
+      <c r="R102" s="138">
+        <v>30</v>
+      </c>
+      <c r="T102" s="136">
+        <v>1</v>
+      </c>
+      <c r="U102" s="137">
+        <v>1</v>
+      </c>
+      <c r="V102" s="137">
+        <v>1</v>
+      </c>
+      <c r="W102" s="137">
+        <v>1</v>
+      </c>
+      <c r="X102" s="137">
+        <v>1</v>
+      </c>
+      <c r="Y102" s="137">
+        <v>1</v>
+      </c>
+      <c r="Z102" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="N103" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="O103" s="136">
+        <v>60</v>
+      </c>
+      <c r="P103" s="137">
+        <v>304.86190499999998</v>
+      </c>
+      <c r="Q103" s="137">
+        <v>40</v>
+      </c>
+      <c r="R103" s="138">
+        <v>30</v>
+      </c>
+      <c r="T103" s="136">
+        <v>1</v>
+      </c>
+      <c r="U103" s="137">
+        <v>1</v>
+      </c>
+      <c r="V103" s="137">
+        <v>1</v>
+      </c>
+      <c r="W103" s="137">
+        <v>1</v>
+      </c>
+      <c r="X103" s="137">
+        <v>1</v>
+      </c>
+      <c r="Y103" s="137">
+        <v>1</v>
+      </c>
+      <c r="Z103" s="137">
+        <v>1</v>
+      </c>
+      <c r="AA103" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC103" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="N104" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="O104" s="136">
+        <v>60</v>
+      </c>
+      <c r="P104" s="137">
+        <v>338.19523799999996</v>
+      </c>
+      <c r="Q104" s="137">
+        <v>35</v>
+      </c>
+      <c r="R104" s="138">
+        <v>30</v>
+      </c>
+      <c r="T104" s="136">
+        <v>1</v>
+      </c>
+      <c r="U104" s="137">
+        <v>1</v>
+      </c>
+      <c r="V104" s="137">
+        <v>1</v>
+      </c>
+      <c r="W104" s="137">
+        <v>1</v>
+      </c>
+      <c r="X104" s="137">
+        <v>1</v>
+      </c>
+      <c r="Y104" s="137">
+        <v>1</v>
+      </c>
+      <c r="Z104" s="137">
+        <v>1</v>
+      </c>
+      <c r="AA104" s="137">
+        <v>1</v>
+      </c>
+      <c r="AB104" s="137">
+        <v>0</v>
+      </c>
+      <c r="AC104" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="N105" s="127" t="s">
+        <v>103</v>
+      </c>
+      <c r="O105" s="136">
+        <v>60</v>
+      </c>
+      <c r="P105" s="137">
+        <v>371.528572</v>
+      </c>
+      <c r="Q105" s="137">
+        <v>30</v>
+      </c>
+      <c r="R105" s="138">
+        <v>30</v>
+      </c>
+      <c r="T105" s="136">
+        <v>1</v>
+      </c>
+      <c r="U105" s="137">
+        <v>1</v>
+      </c>
+      <c r="V105" s="137">
+        <v>1</v>
+      </c>
+      <c r="W105" s="137">
+        <v>1</v>
+      </c>
+      <c r="X105" s="137">
+        <v>1</v>
+      </c>
+      <c r="Y105" s="137">
+        <v>1</v>
+      </c>
+      <c r="Z105" s="137">
+        <v>1</v>
+      </c>
+      <c r="AA105" s="137">
+        <v>1</v>
+      </c>
+      <c r="AB105" s="137">
+        <v>1</v>
+      </c>
+      <c r="AC105" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="N106" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="O106" s="140">
+        <v>60</v>
+      </c>
+      <c r="P106" s="141">
+        <v>404.86190499999998</v>
+      </c>
+      <c r="Q106" s="141">
+        <v>25</v>
+      </c>
+      <c r="R106" s="142">
+        <v>30</v>
+      </c>
+      <c r="T106" s="140">
+        <v>1</v>
+      </c>
+      <c r="U106" s="141">
+        <v>1</v>
+      </c>
+      <c r="V106" s="141">
+        <v>1</v>
+      </c>
+      <c r="W106" s="141">
+        <v>1</v>
+      </c>
+      <c r="X106" s="141">
+        <v>1</v>
+      </c>
+      <c r="Y106" s="141">
+        <v>1</v>
+      </c>
+      <c r="Z106" s="141">
+        <v>1</v>
+      </c>
+      <c r="AA106" s="141">
+        <v>1</v>
+      </c>
+      <c r="AB106" s="141">
+        <v>1</v>
+      </c>
+      <c r="AC106" s="142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="T108" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="U108" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="V108" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="W108" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y108" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z108" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA108" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB108" s="127" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="O109" s="127" t="s">
+        <v>131</v>
+      </c>
+      <c r="T109" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y109" s="127" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="D110" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="E110" s="127" t="s">
+        <v>39</v>
+      </c>
+      <c r="G110" s="113"/>
+      <c r="N110" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="O110" s="114" cm="1">
+        <f t="array" ref="O110:R110">($O$17:$R$17*O24:R24)/(1+$O$48)^COUNTA($N$110:$N110)</f>
+        <v>1664.3550582524269</v>
+      </c>
+      <c r="P110" s="115">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="115">
+        <v>33.2871013592233</v>
+      </c>
+      <c r="R110" s="116">
+        <v>957.96209708737854</v>
+      </c>
+      <c r="S110" s="137"/>
+      <c r="T110" s="132" cm="1">
+        <f t="array" ref="T110:W110">($O$18:$R$18*O97:R97)/(1+$O$48)^COUNTA($N$110:$N110)</f>
+        <v>0</v>
+      </c>
+      <c r="U110" s="133">
+        <v>2912621.3592233011</v>
+      </c>
+      <c r="V110" s="133">
+        <v>2718446.6019417476</v>
+      </c>
+      <c r="W110" s="134">
+        <v>0</v>
+      </c>
+      <c r="X110" s="137"/>
+      <c r="Y110" s="132" cm="1">
+        <f t="array" ref="Y110:AB110">($O$19:$R$19*O64:R64)/(1+$O$48)^COUNTA($N$110:$N110)</f>
+        <v>0</v>
+      </c>
+      <c r="Z110" s="133">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="133">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="N111" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="O111" s="117" cm="1">
+        <f t="array" ref="O111:R111">($O$17:$R$17*O25:R25)/(1+$O$48)^COUNTA($N$110:$N111)</f>
+        <v>1615.8786973324536</v>
+      </c>
+      <c r="P111" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="118">
+        <v>32.317574135168257</v>
+      </c>
+      <c r="R111" s="119">
+        <v>1581.1025355829956</v>
+      </c>
+      <c r="S111" s="137"/>
+      <c r="T111" s="136" cm="1">
+        <f t="array" ref="T111:W111">($O$18:$R$18*O98:R98)/(1+$O$48)^COUNTA($N$110:$N111)</f>
+        <v>0</v>
+      </c>
+      <c r="U111" s="137">
+        <v>2733528.1364878877</v>
+      </c>
+      <c r="V111" s="137">
+        <v>2450749.3637477616</v>
+      </c>
+      <c r="W111" s="138">
+        <v>0</v>
+      </c>
+      <c r="X111" s="137"/>
+      <c r="Y111" s="136" cm="1">
+        <f t="array" ref="Y111:AB111">($O$19:$R$19*O65:R65)/(1+$O$48)^COUNTA($N$110:$N111)</f>
+        <v>0</v>
+      </c>
+      <c r="Z111" s="137">
+        <v>29718702.045433123</v>
+      </c>
+      <c r="AA111" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="N112" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="O112" s="117" cm="1">
+        <f t="array" ref="O112:R112">($O$17:$R$17*O26:R26)/(1+$O$48)^COUNTA($N$110:$N112)</f>
+        <v>1568.8142692548092</v>
+      </c>
+      <c r="P112" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="118">
+        <v>31.376285568124519</v>
+      </c>
+      <c r="R112" s="119">
+        <v>1647.2549868356873</v>
+      </c>
+      <c r="S112" s="137"/>
+      <c r="T112" s="136" cm="1">
+        <f t="array" ref="T112:W112">($O$18:$R$18*O99:R99)/(1+$O$48)^COUNTA($N$110:$N112)</f>
+        <v>0</v>
+      </c>
+      <c r="U112" s="137">
+        <v>3139458.8218283248</v>
+      </c>
+      <c r="V112" s="137">
+        <v>2196339.9824475828</v>
+      </c>
+      <c r="W112" s="138">
+        <v>0</v>
+      </c>
+      <c r="X112" s="137"/>
+      <c r="Y112" s="136" cm="1">
+        <f t="array" ref="Y112:AB112">($O$19:$R$19*O66:R66)/(1+$O$48)^COUNTA($N$110:$N112)</f>
+        <v>0</v>
+      </c>
+      <c r="Z112" s="137">
+        <v>70160860.855456114</v>
+      </c>
+      <c r="AA112" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="14:28" x14ac:dyDescent="0.35">
+      <c r="N113" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="O113" s="117" cm="1">
+        <f t="array" ref="O113:R113">($O$17:$R$17*O27:R27)/(1+$O$48)^COUNTA($N$110:$N113)</f>
+        <v>1523.1206497619507</v>
+      </c>
+      <c r="P113" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="118">
+        <v>30.462413172936429</v>
+      </c>
+      <c r="R113" s="119">
+        <v>985.60692741267837</v>
+      </c>
+      <c r="S113" s="137"/>
+      <c r="T113" s="136" cm="1">
+        <f t="array" ref="T113:W113">($O$18:$R$18*O100:R100)/(1+$O$48)^COUNTA($N$110:$N113)</f>
+        <v>0</v>
+      </c>
+      <c r="U113" s="137">
+        <v>4321516.3815554678</v>
+      </c>
+      <c r="V113" s="137">
+        <v>1954671.5054145157</v>
+      </c>
+      <c r="W113" s="138">
+        <v>0</v>
+      </c>
+      <c r="X113" s="137"/>
+      <c r="Y113" s="136" cm="1">
+        <f t="array" ref="Y113:AB113">($O$19:$R$19*O67:R67)/(1+$O$48)^COUNTA($N$110:$N113)</f>
+        <v>0</v>
+      </c>
+      <c r="Z113" s="137">
+        <v>34058669.87393906</v>
+      </c>
+      <c r="AA113" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="14:28" x14ac:dyDescent="0.35">
+      <c r="N114" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="O114" s="117" cm="1">
+        <f t="array" ref="O114:R114">($O$17:$R$17*O28:R28)/(1+$O$48)^COUNTA($N$110:$N114)</f>
+        <v>1478.7579123902435</v>
+      </c>
+      <c r="P114" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="118">
+        <v>29.575158420326634</v>
+      </c>
+      <c r="R114" s="119">
+        <v>956.89992952687226</v>
+      </c>
+      <c r="S114" s="137"/>
+      <c r="T114" s="136" cm="1">
+        <f t="array" ref="T114:W114">($O$18:$R$18*O101:R101)/(1+$O$48)^COUNTA($N$110:$N114)</f>
+        <v>0</v>
+      </c>
+      <c r="U114" s="137">
+        <v>4770719.4895560006</v>
+      </c>
+      <c r="V114" s="137">
+        <v>1725217.5687683283</v>
+      </c>
+      <c r="W114" s="138">
+        <v>0</v>
+      </c>
+      <c r="X114" s="137"/>
+      <c r="Y114" s="136" cm="1">
+        <f t="array" ref="Y114:AB114">($O$19:$R$19*O68:R68)/(1+$O$48)^COUNTA($N$110:$N114)</f>
+        <v>0</v>
+      </c>
+      <c r="Z114" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA114" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB114" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="14:28" x14ac:dyDescent="0.35">
+      <c r="N115" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="O115" s="117" cm="1">
+        <f t="array" ref="O115:R115">($O$17:$R$17*O29:R29)/(1+$O$48)^COUNTA($N$110:$N115)</f>
+        <v>1435.6872935827607</v>
+      </c>
+      <c r="P115" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="118">
+        <v>28.71374603915207</v>
+      </c>
+      <c r="R115" s="119">
+        <v>1507.471662030578</v>
+      </c>
+      <c r="S115" s="137"/>
+      <c r="T115" s="136" cm="1">
+        <f t="array" ref="T115:W115">($O$18:$R$18*O102:R102)/(1+$O$48)^COUNTA($N$110:$N115)</f>
+        <v>0</v>
+      </c>
+      <c r="U115" s="137">
+        <v>4548018.0690461975</v>
+      </c>
+      <c r="V115" s="137">
+        <v>1507471.6620305779</v>
+      </c>
+      <c r="W115" s="138">
+        <v>0</v>
+      </c>
+      <c r="X115" s="137"/>
+      <c r="Y115" s="136" cm="1">
+        <f t="array" ref="Y115:AB115">($O$19:$R$19*O69:R69)/(1+$O$48)^COUNTA($N$110:$N115)</f>
+        <v>0</v>
+      </c>
+      <c r="Z115" s="137">
+        <v>58508245.579429083</v>
+      </c>
+      <c r="AA115" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="14:28" x14ac:dyDescent="0.35">
+      <c r="N116" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="O116" s="117" cm="1">
+        <f t="array" ref="O116:R116">($O$17:$R$17*O30:R30)/(1+$O$48)^COUNTA($N$110:$N116)</f>
+        <v>1393.8711588182141</v>
+      </c>
+      <c r="P116" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="118">
+        <v>27.877423338982592</v>
+      </c>
+      <c r="R116" s="119">
+        <v>1463.5647204180368</v>
+      </c>
+      <c r="S116" s="137"/>
+      <c r="T116" s="136" cm="1">
+        <f t="array" ref="T116:W116">($O$18:$R$18*O103:R103)/(1+$O$48)^COUNTA($N$110:$N116)</f>
+        <v>0</v>
+      </c>
+      <c r="U116" s="137">
+        <v>4957612.5417492781</v>
+      </c>
+      <c r="V116" s="137">
+        <v>1300946.418149366</v>
+      </c>
+      <c r="W116" s="138">
+        <v>0</v>
+      </c>
+      <c r="X116" s="137"/>
+      <c r="Y116" s="136" cm="1">
+        <f t="array" ref="Y116:AB116">($O$19:$R$19*O70:R70)/(1+$O$48)^COUNTA($N$110:$N116)</f>
+        <v>0</v>
+      </c>
+      <c r="Z116" s="137">
+        <v>67869910.359599441</v>
+      </c>
+      <c r="AA116" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="14:28" x14ac:dyDescent="0.35">
+      <c r="N117" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="O117" s="117" cm="1">
+        <f t="array" ref="O117:R117">($O$17:$R$17*O31:R31)/(1+$O$48)^COUNTA($N$110:$N117)</f>
+        <v>1353.2729697264217</v>
+      </c>
+      <c r="P117" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="118">
+        <v>27.065459552410285</v>
+      </c>
+      <c r="R117" s="119">
+        <v>1420.9366217650845</v>
+      </c>
+      <c r="S117" s="137"/>
+      <c r="T117" s="136" cm="1">
+        <f t="array" ref="T117:W117">($O$18:$R$18*O104:R104)/(1+$O$48)^COUNTA($N$110:$N117)</f>
+        <v>0</v>
+      </c>
+      <c r="U117" s="137">
+        <v>5339488.8775639851</v>
+      </c>
+      <c r="V117" s="137">
+        <v>1105172.92803951</v>
+      </c>
+      <c r="W117" s="138">
+        <v>0</v>
+      </c>
+      <c r="X117" s="137"/>
+      <c r="Y117" s="136" cm="1">
+        <f t="array" ref="Y117:AB117">($O$19:$R$19*O71:R71)/(1+$O$48)^COUNTA($N$110:$N117)</f>
+        <v>0</v>
+      </c>
+      <c r="Z117" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA117" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB117" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="14:28" x14ac:dyDescent="0.35">
+      <c r="N118" s="127" t="s">
+        <v>103</v>
+      </c>
+      <c r="O118" s="117" cm="1">
+        <f t="array" ref="O118:R118">($O$17:$R$17*O32:R32)/(1+$O$48)^COUNTA($N$110:$N118)</f>
+        <v>1313.8572521615745</v>
+      </c>
+      <c r="P118" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="118">
+        <v>26.277145196514837</v>
+      </c>
+      <c r="R118" s="119">
+        <v>1379.5501182185285</v>
+      </c>
+      <c r="S118" s="137"/>
+      <c r="T118" s="136" cm="1">
+        <f t="array" ref="T118:W118">($O$18:$R$18*O105:R105)/(1+$O$48)^COUNTA($N$110:$N118)</f>
+        <v>0</v>
+      </c>
+      <c r="U118" s="137">
+        <v>5694914.2824906781</v>
+      </c>
+      <c r="V118" s="137">
+        <v>919700.07881235238</v>
+      </c>
+      <c r="W118" s="138">
+        <v>0</v>
+      </c>
+      <c r="X118" s="137"/>
+      <c r="Y118" s="136" cm="1">
+        <f t="array" ref="Y118:AB118">($O$19:$R$19*O72:R72)/(1+$O$48)^COUNTA($N$110:$N118)</f>
+        <v>0</v>
+      </c>
+      <c r="Z118" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA118" s="137">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="14:28" x14ac:dyDescent="0.35">
+      <c r="N119" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="O119" s="120" cm="1">
+        <f t="array" ref="O119:R119">($O$17:$R$17*O33:R33)/(1+$O$48)^COUNTA($N$110:$N119)</f>
+        <v>1275.5895652054121</v>
+      </c>
+      <c r="P119" s="121">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="121">
+        <v>25.511791452927028</v>
+      </c>
+      <c r="R119" s="122">
+        <v>1339.3690468141053</v>
+      </c>
+      <c r="S119" s="137"/>
+      <c r="T119" s="140" cm="1">
+        <f t="array" ref="T119:W119">($O$18:$R$18*O106:R106)/(1+$O$48)^COUNTA($N$110:$N119)</f>
+        <v>0</v>
+      </c>
+      <c r="U119" s="141">
+        <v>6025105.5976799205</v>
+      </c>
+      <c r="V119" s="141">
+        <v>744093.91489672521</v>
+      </c>
+      <c r="W119" s="142">
+        <v>0</v>
+      </c>
+      <c r="X119" s="137"/>
+      <c r="Y119" s="140" cm="1">
+        <f t="array" ref="Y119:AB119">($O$19:$R$19*O73:R73)/(1+$O$48)^COUNTA($N$110:$N119)</f>
+        <v>0</v>
+      </c>
+      <c r="Z119" s="141">
+        <v>0</v>
+      </c>
+      <c r="AA119" s="141">
+        <v>0</v>
+      </c>
+      <c r="AB119" s="142">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>